--- a/DOWNLOADS/EDITAIS/U_180224_E_900302025_29-09-2025_09h00m/U_180224_E_900302025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_180224_E_900302025_29-09-2025_09h00m/U_180224_E_900302025_29-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="362">
   <si>
     <t>Nº</t>
   </si>
@@ -463,169 +463,214 @@
     <t>Aparelho Telefônico Aparelho Telefônico Tipo: Mesa, Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz, Características Adicionais: Identificador Chamadas, Teclado Iluminado, Alimentação: Bivolt</t>
   </si>
   <si>
-    <t>Cartucho Toner Impressora Samsung Tipo</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Hp Tipo Cartucho:</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho:</t>
-  </si>
-  <si>
-    <t>Fita Adesiva Material: Plástico , Tipo:</t>
-  </si>
-  <si>
-    <t>Processador Tipo: Lga 1700 , Velocidade</t>
-  </si>
-  <si>
-    <t>Memoria Ram; de 32 Gb, Velocidade de 5200</t>
-  </si>
-  <si>
-    <t>Cabo Rede Computador Material Revestimento:</t>
-  </si>
-  <si>
-    <t>Monitor Computador Tamanho Tela: 23 A 30</t>
-  </si>
-  <si>
-    <t>Water cooler, ARGB, 360MM;Velocidade da</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Hp Tipo Cartucho:</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia Tipo Lâmpada: Led ,</t>
-  </si>
-  <si>
-    <t>Memória Flash Capacidade: 16 GB, Tipo: Pen</t>
-  </si>
-  <si>
-    <t>Memória Flash Capacidade: 64 MB, Tipo: Usb</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Aplicação: Caixa/Mesa</t>
-  </si>
-  <si>
-    <t>Switch Quantidade Portas: 16 UN, Tipo Portas:</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Material Condutor: Cobre</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas Tipo: Conjunto Com 152</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas Componentes: 38 Pecas ,</t>
-  </si>
-  <si>
-    <t>Conector Tipo: Macho , Aplicação: Cabo De</t>
-  </si>
-  <si>
-    <t>Conector , Tipo: Rj 45 Macho vazado, Número</t>
-  </si>
-  <si>
-    <t>Pente De Memória Capacidade Memória: 8 GB,</t>
-  </si>
-  <si>
-    <t>Pente De Memória Capacidade Memória: 16</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Disco Ssd , Capacidade:</t>
-  </si>
-  <si>
-    <t>Teclado Microcomputador Tipo: Multimidia ,</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Vertical , Sensor:</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Padrão , Sensor:</t>
-  </si>
-  <si>
-    <t>Estabilizador Tensão Tensão Alimentação</t>
-  </si>
-  <si>
-    <t>Sistema Circuito Fechado Tv Componentes:</t>
-  </si>
-  <si>
-    <t>Mouse Pad Material: Borracha Neoprene ,</t>
-  </si>
-  <si>
-    <t>Caixa Som Potência: Por Canal 3 W, Voltagem:</t>
-  </si>
-  <si>
-    <t>Extensão Elétrica Tipo: Carretel , Comprimento:</t>
-  </si>
-  <si>
-    <t>Alicate Para Crimpar Material: Metal ,</t>
-  </si>
-  <si>
-    <t>Disco Rígido Removível Capacidade Memória: 2</t>
-  </si>
-  <si>
-    <t>Cabo Usb Comprimento: 5 M, Tipo: Usb 3.0 ,</t>
-  </si>
-  <si>
-    <t>Fechadura Biometrica Reconhecimento De</t>
-  </si>
-  <si>
-    <t>Disco Magnético Memória: 1 Terabyte TB.,</t>
-  </si>
-  <si>
-    <t>Unidade Imagem Referência: MIt-R116 , Tipo</t>
-  </si>
-  <si>
-    <t>Régua Elétrica Material: Chapa Plástica De Alto</t>
-  </si>
-  <si>
-    <t>Placa Controladora Vídeo Tamanho Memória: 8</t>
-  </si>
-  <si>
-    <t>Placa Controladora Vídeo Tamanho Memória: 4</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Hd Purple , Capacidade: 8</t>
-  </si>
-  <si>
-    <t>Caneta - Indicador Material: Aço , Tipo</t>
-  </si>
-  <si>
-    <t>Microfone Tipo: Sem Fio, Alimentação: Bateria</t>
-  </si>
-  <si>
-    <t>Placa Mãe Componentes: Chipset Intel B760 ,</t>
-  </si>
-  <si>
-    <t>Filtro Linha Tensão Alimentação: 110/220 V,</t>
-  </si>
-  <si>
-    <t>Suporte Tipo: Ajustável, Formato: Retangular,</t>
-  </si>
-  <si>
-    <t>Televisor Tamanho Tela: 43 POL, Voltagem:</t>
-  </si>
-  <si>
-    <t>Multímetro Tensão: 1.000 V, Tensão Ac: 1.000</t>
-  </si>
-  <si>
-    <t>Apresentador Multimídia Distância Mínima: 10</t>
-  </si>
-  <si>
-    <t>Secador / Soprador Tipo: Portátil, Tensão</t>
-  </si>
-  <si>
-    <t>Bateria Recarregável Aplicação: Equipamentos</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Material Condutor: Cobre ,</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico Tipo: Mesa , Funções</t>
+    <t>Cartucho Toner Impressora Samsung Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 1,: Mlt-D116s</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original, Cor: Preta, Referência Cartucho 2: Cf280a</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 3: 78c0x10</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Amarela, Referência Cartucho 3: 78c0x40</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Magenta, Referência Cartucho 3: 78c0x30</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Ciano, Referência Cartucho 3: 78c0x20</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original, Cor: Preta, Referência Cartucho 3: W1030xz</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Magenta, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Amarela, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Ciano, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Preta, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Magenta, Referência Cartucho 2: T296320</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 2: T296120</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Amarela, Referência Cartucho 2: T296420</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Ciano, Referência Cartucho 2: T296220</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Plástico, Tipo: Rotuladora, Largura: 36MM, Cor: Incolor, Aplicação: Rotulador Eletrônico Marca Brother, Características Adicionais: Fita Laminada Tz</t>
+  </si>
+  <si>
+    <t>Processador Tipo: Lga 1700, Velocidade Processamento: 2.1GHZ, Modelo: Intel Core I7 12700, Características Adicionais: Gráfico Uhd Integrado, Barramento: Turbo Boost 4.3 Ghz, Memória Cache: 25MB</t>
+  </si>
+  <si>
+    <t>Memoria Ram; de 32 Gb, Velocidade de 5200 Mhz; Ddr5; Com 288 Vias, Dual Channel, Suporte a Xmp 2.0, Com Dissipador de Calor Acoplado</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama, Material Condutor: Cobre Eletrolítico, Tipo Condutor: Trançado Flexível, Tipo Cabo: Patch Cord, Cor: Azul, Padrão Cabeamento: Gigalan, Características Adicionais: Conectorizado, Categoria: 6, Comprimento: 1,5M, Conector: Rj-45</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama, Material Condutor: Cobre Eletrolítico, Tipo Condutor: Trançado Flexível, Tipo Cabo: Patch Cord, Cor: Azul, Padrão Cabeamento: Gigalan, Características Adicionais: Conectorizado, Categoria: 6, Comprimento: 2,5M, Conector: Rj-45</t>
+  </si>
+  <si>
+    <t>Monitor Computador Tamanho Tela: 23 A 30POL, Tipo De Tela: Led, Formato Tela: Widescreen, Qualidade De Imagem: 4 K, Interatividade Da Tela: Sem Interatividade, Ajuste: Ajuste De Rotação, Altura E Inclinação Do Display, Alimentação: Bivolt, Garantia On Site: 12MESES</t>
+  </si>
+  <si>
+    <t>Water cooler, ARGB, 360MM; Velocidade da Ventoinha 800 a 1800 +10% RPM; Dimensões da Ventoinha 120 x 120 x 25 mm; Soquete Intel: LGA115X/1200/1700/1366/2011/2066. AMD: FM2/FM1/AM3+/AM3/AM2+/AM2/AM4/AMS5; Velocidade da Bomba 2600 +10 RPM</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original, Cor Tinta: Preto, Referência Cartucho 6: Hp 3ym79ab</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original, Cor Tinta: Colorida, Referência Cartucho 6: Hp 3ym78ab</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Motorizado, Tipo: Retroprojeção, Teto, Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast, Luminosidade Mínima: 5.000LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
+  </si>
+  <si>
+    <t>Memória Flash Capacidade: 16GB, Tipo: Pen Drive, Interface: Usb 2.0 E Windows Xp/Vista/7, Características Adicionais: Acabamento Emborrachado/Resistente À Agua</t>
+  </si>
+  <si>
+    <t>Memória Flash Capacidade: 64MB, Tipo: Usb Flash, Interface: Usb Plug &amp; Play, Velocidade Leitura: 7,2MB/S, Velocidade Gravação: 4MB/S, Características Adicionais: Sem Necessidade De Bateria,Fonte Interna Com Led,, Aplicação: Tranferência E Backup De Arquivos</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Aplicação: Caixa/Mesa Som, Tipo Cabo: Xlr Fêmea/Xlr Macho, Comprimento: 15M</t>
+  </si>
+  <si>
+    <t>Switch Quantidade Portas: 16UN, Tipo Portas: 1000 Base T, 100 Base Tx E 10 Base T, Em Modos Ful, Velocidade Porta: 20 Mbps, Alimentação: 110/220V, Frequência: 60HZ, Características Adicionais: Portas 10/100/1000, Autoense E Rj45, Aplicação: Conectar Microcomputador À Rede</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Material Condutor: Cobre, Material Isolamento Condutor: Pvc, Aplicação: Equipamentos Eletrônicos, Material Cobertura: Pvc Emborrachado, Comprimento: 10M, Conectores: Hdmi Macho, Material Conector: Ouro 24 Quilates</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Tipo: Conjunto Com 152 Peças, Componentes: 152 Peças, Com Pontas Diversas, Componentes Adicionais: Chave De Fenda Rotating Cap Design., Aplicação: Manutenção Em Geral, Características Adicionais: Magnético, Antiderrapante, Precisão,</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Componentes: 38 Pecas, Aplicação: Ferramentas Para Computador, Características Adicionais: Maleta Termoplástica</t>
+  </si>
+  <si>
+    <t>Conector Tipo: Macho, Aplicação: Cabo De Rede, Categoria: 6, Padrão: Rj45</t>
+  </si>
+  <si>
+    <t>Conector , Tipo: Rj 45 Macho vazado, Número Conectores: 8 UN, Características Adicionais: Não Blindado Para Fio Sólido, Categoria 6, Transpa</t>
+  </si>
+  <si>
+    <t>Pente De Memória Capacidade Memória: 8GB, Tipo: Ddr4, Velocidade Barramento: 2.133MHZ, Aplicação: Notebook</t>
+  </si>
+  <si>
+    <t>Pente De Memória Capacidade Memória: 16GB, Tipo: Ddr3, Características Adicionais: Sdram/Dimm, Frequência Clock: 1.333 MHZ</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Disco Ssd, Capacidade: Mínimo 250GB, Velocidade: 3300MB/S, Aplicação: Microcomputador</t>
+  </si>
+  <si>
+    <t>Teclado Microcomputador Tipo: Multimidia, Tipo Conector: Usb, Conectividade: Com Fio</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Vertical, Sensor: Laser, Tipo Conector: Usb, Conectividade: Sem Fio</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Padrão, Sensor: Led, Tipo Conector: Usb, Conectividade: Com Fio</t>
+  </si>
+  <si>
+    <t>Estabilizador Tensão Tensão Alimentação Entrada: 115/127/220V, Quantidade Tomadas Saída: 6, Aplicação: Informática, Tensão Saída: 110V, Capacidade Nominal: 1000VA</t>
+  </si>
+  <si>
+    <t>Sistema Circuito Fechado Tv Componentes: Gravador Nvr 16 Canais, Tipo Sistema: Gravação Digital, Aplicação: Sistema De Segurança, Características Adicionais: Suportar 08 HdS De Até 16tb</t>
+  </si>
+  <si>
+    <t>Mouse Pad Material: Borracha Neoprene, Comprimento: 25CM, Largura: 22CM, Espessura: 2,5MM, Características Adicionais: Ergonômico, Com Apoio Para O Punho Em Gel, Cor: Azul</t>
+  </si>
+  <si>
+    <t>Caixa Som Potência: Por Canal 3W, Voltagem: 5 VdcV, Aplicação: Computador, Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De Volume</t>
+  </si>
+  <si>
+    <t>Extensão Elétrica Tipo: Carretel, Comprimento: 30M, Componentes: 5 Tomadas, 2pT, Seção Nominal: 2,5MM2, Número Pólos: 2p T, Formação Do Cabo: 3 X 2,5MM2, Referência: Force Line 0181200019, Tensão Nominal: 110/220VCA, Temperatura Operação: 70, Formato Contato: Padrão Brasileiro, Normas Técnicas: Nbr 14136, Grau Proteção: Ip44, Potência Máxima: 2.200 W, Material: Termoplástico Anti-Chama, Corrente Nominal: 10A, Tensão Entrada: 110-127V, Conexões: 1(Uma) Entrada 2pT E 5 Saídas 2pT</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Disco Ssd, Capacidade: 500GB, Tamanho: 22 X 80MM, Aplicação: Microcomputador, Características Adicionais: Formato: M.2 2280, Interface: Nvme Pcie 4.0 X 4</t>
+  </si>
+  <si>
+    <t>Alicate Para Crimpar RJ45 de passagem, concetor vazado ; cat 5e, cat6,cat7. Modelo de referencia: GTL-3436 gettalan ou 35030017 furukawa</t>
+  </si>
+  <si>
+    <t>Disco Rígido Removível Capacidade Memória: 2TB., Velocidade Transferência: 4.8GB/S, Interface: Usb 3.0, Aplicação: Computador, Características Adicionais: Memória Cache Igual Ou Superior A 2mb, Velocidade: 7.200RPM</t>
+  </si>
+  <si>
+    <t>Cabo Usb Comprimento: 5M, Tipo: Usb 3.0, Aplicação: Informática, Características Adicionais: Conectores USB x USB Tipo -C</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Polietileno Especial, Material Condutor: Cobre Nú, Bitola Condutor: 24AWG, Tipo Condutor: Trançado 4 Pares, Tipo Cabo: 6 E, Cor: Azul, Padrão Cabeamento: Com Blindagem Helicoidal Em Fita Metalizada, Características Adicionais: Cabo Utp Blindado Com Marcação Seqüencial Métrica, Categoria: 6e, Aplicação: Conexão De Rede, Material Isolamento Condutor: Pvc Não Propagante À Chama, Comprimento: 305M</t>
+  </si>
+  <si>
+    <t>Fechadura Biometrica Reconhecimento De Impressões Digitais: 50, Acionamento: Impressão Digital, Leitura: Digital, Alimentação: Pilhas E/Ou Baterias, Características Adicionais: Resolução Mínima 300 Dpi, Chave Emergência, Sistema De Programação: Permite Excluir Ou Substituir Impressões Digitais</t>
+  </si>
+  <si>
+    <t>Disco Magnético Memória: 1 TerabyteTB., Aplicação: Uso Externo, Modelo: Ssd, Características Adicionais: Compatível Com Usb 3.1</t>
+  </si>
+  <si>
+    <t>Unidade Imagem Referência: Mlt-R116, Tipo Uso: Impressora Sansung, Cor: Preta, Durabilidade: 9.000 Cópias, Tipo: Original</t>
+  </si>
+  <si>
+    <t>Régua Elétrica Material: Chapa Plástica De Alto Impacto, Quantidade Tomadas Saída: 4 (2pT), Características Adicionais: Protetor Contra Surtos De Tensão Chave Liga/Desl, Potência Nominal: 127V, Comprimento Cabo: 1,3M</t>
+  </si>
+  <si>
+    <t>Placa Controladora Vídeo Tamanho Memória: 8GB, Resolução Imagem: 7680 X 4320DPI, Padrão Imagem: Vga-Dvi-Hdmi, Modelo: Nvidia Geforce Rtx 3070, Barramento: Pci Expres 4.0 - Hdmi 2.1, Padrão: Ddr6</t>
+  </si>
+  <si>
+    <t>Placa Controladora Vídeo Tamanho Memória: 4GB, Resolução Imagem: 1920 X 1080DPI, Padrão Imagem: Vga-Dvi-Hdmi, Características Adicionais: 700 Mhz</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Hd Purple, Capacidade: 8TB., Aplicação: Equipamentos De Segurança Eletrônica - Cftv, Características Adicionais: Modelo De Referência: Wd82purz, Memória Cache: 256MB</t>
+  </si>
+  <si>
+    <t>Caneta - Indicador Material: Aço, Tipo Indicador: Laser, Aplicação: Apresentador De Slides Com Laser Pointer, Características Adicionais: Sem Fio, Alcance 15 Metros, Interface Usb, Estojo</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Vertical, Sensor: Laser, Tipo Conector: Usb, Conectividade: Com Fio</t>
+  </si>
+  <si>
+    <t>Microfone Tipo: Sem Fio, Alimentação: Bateria 9V, Tipo Receptor: Antena Externa, Características Adicionais: 10 Canais E Oito Sistemas Compatíveis, Alcance: 75M, Alimentação Externa Receptor: 120V, Acessórios: Conector 1/4 E Xlr, Encaixe Para Pedestal, Referência Fabricante: Shure P24/P58</t>
+  </si>
+  <si>
+    <t>Placa Mãe Componentes: Chipset Intel B760, Aplicação: Microcomputador, Tipo Portas: 8 X Usb, Rj-45 2.5gb, Hdmi, Displayport, Tipo Conectores: 4 X Sata3 6gb/S (Suporta Raid 0/1/5/10), Memória Expansão: 192GB, Características Adicionais: Wifi 6e Bluetooth, Slots: 3 X M.2, 3 X Pci-Express, Memória Ram: 4 Slots Ddr5, Fonte Alimentação: Atx, Padrão: Micro Atx, Socket: Lga 1700, Referência: Asus Tuf Gaming</t>
+  </si>
+  <si>
+    <t>Filtro Linha Tensão Alimentação: 110/220V, Quantidade Saída: 5 Tomadas Para Computador, Comprimento Cabo: 3M</t>
+  </si>
+  <si>
+    <t>Suporte Tipo: Ajustável, Formato: Retangular, Material: Plástico, Aplicação: Apoio Para Notebook</t>
+  </si>
+  <si>
+    <t>Televisor Tamanho Tela: 43POL, Voltagem: BivoltV, Características Adicionais: Smart Tv, 4 K, Wifi. Entradas Hdmi/Usb, Conversor, Tipo Tela: Led, Acessórios: Controle Remoto</t>
+  </si>
+  <si>
+    <t>Multímetro Tensão: 1.000V, Tensão Ac: 1.000V, Corrente Dc: 1.000A, Corrente Ac: 10A, Resistência: 50MOHM, Frequência: 0,01 A 100KHZ, Características Adicionais: Display Digital, Capacitância: 1nf A 10.000mf, Temperatura: 50C A 1.200C</t>
+  </si>
+  <si>
+    <t>Apresentador Multimídia Distância Mínima: 10M, Freqüência: 2,4GHZ, Compatibilidade: Windows, Mac, Pc, Notebook, Fonte Alimentação: Bateria, Características Adicionais: Usb E Sem Fio</t>
+  </si>
+  <si>
+    <t>Secador / Soprador Tipo: Portátil, Tensão Alimentação: 220V, Potência: 500W, Uso: Limpeza Material Informática</t>
+  </si>
+  <si>
+    <t>Bateria Recarregável Aplicação: Equipamentos Eletrônicos, Sistema Eletroquímico: Ni-Mh, Tensão Nominal: 9V, Capacidade Nominal 1: 450MAH</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Material Condutor: Cobre, Aplicação: Vídeo Tv Projetores Dvds Receivers Sinais S-Vhs, Características Adicionais: Balanceado, Blindado E Flexível, Tipo Cabo: Hdmi, Conectores: Macho-Macho</t>
+  </si>
+  <si>
+    <t>Aparelho Telefônico Tipo: Mesa, Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz, Características Adicionais: Identificador Chamadas, Teclado Iluminado, Alimentação: Bivolt</t>
   </si>
   <si>
     <t>169,59</t>
@@ -1412,7 +1457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1461,19 +1506,19 @@
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F2" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1490,19 +1535,19 @@
         <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H3" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I3" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1519,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I4" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1542,1991 +1587,1939 @@
         <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F5" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="G5" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H5" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I5" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="C6" t="s">
+        <v>153</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I6" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H8" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I8" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H9" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I9" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H10" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I10" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H11" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I11" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D12">
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G12" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H12" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I12" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H13" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I13" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G14" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H14" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I14" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F15" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="G15" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H15" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I15" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F16" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G16" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H16" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I16" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="F17" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G17" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H17" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I17" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F18" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G18" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H18" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I18" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H19" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I19" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="F20" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="G20" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H20" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I20" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D21">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G21" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H21" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I21" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="F22" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H22" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I22" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="F23" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="G23" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H23" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I23" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="F24" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G24" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H24" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I24" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="D25">
         <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G25" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H25" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I25" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="G26" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H26" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I26" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="F27" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="G27" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H27" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D28">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="F28" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="G28" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H28" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I28" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G29" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H29" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I29" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="F30" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G30" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H30" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I30" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="G31" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H31" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I31" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="F32" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="G32" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H32" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I32" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="F33" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="G33" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H33" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I33" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="F34" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H34" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I34" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E35" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H35" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I35" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C36" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D36">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H36" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I36" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C37" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D37">
         <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H37" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I37" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E38" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="F38" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H38" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H39" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I39" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="G40" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H40" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I40" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="F41" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="G41" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H41" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D42">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="F42" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="G42" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H42" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="G43" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="H43" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I43" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="F44" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="G44" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="H44" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I44" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="F45" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="G45" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H45" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F46" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="G46" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H46" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I46" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>194</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="G47" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H47" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I47" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F48" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="G48" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H48" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I48" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F49" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H49" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I49" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F50" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="G50" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H50" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I50" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D51">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="F51" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="G51" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H51" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I51" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="F52" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
       <c r="G52" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H52" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I52" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F53" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="G53" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H53" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I53" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C54" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>254</v>
+        <v>339</v>
       </c>
       <c r="G54" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H54" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I54" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="G55" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H55" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I55" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C56" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="G56" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H56" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I56" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C57" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="D57">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F57" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="G57" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H57" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I57" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C58" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="G58" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H58" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I58" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C59" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="F59" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="G59" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H59" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I59" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C60" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="F60" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G60" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H60" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I60" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="G61" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H61" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I61" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="D62">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="G62" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H62" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I62" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="F63" t="s">
-        <v>263</v>
+        <v>347</v>
       </c>
       <c r="G63" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="H63" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I63" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F64" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="G64" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H64" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I64" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D65">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="G65" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H65" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I65" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F66" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="G66" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H66" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I66" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F67" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="G67" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H67" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I67" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F68" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="G68" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H68" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I68" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C69" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F69" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="G69" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H69" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I69" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E70" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="F70" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G70" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="H70" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I70" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F71" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="G71" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="H71" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="I71" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" t="s">
-        <v>202</v>
-      </c>
-      <c r="D72">
-        <v>5</v>
-      </c>
-      <c r="E72" t="s">
-        <v>272</v>
-      </c>
-      <c r="F72" t="s">
-        <v>339</v>
-      </c>
-      <c r="G72" t="s">
-        <v>344</v>
-      </c>
-      <c r="H72" t="s">
-        <v>345</v>
-      </c>
-      <c r="I72" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73">
-        <v>10</v>
-      </c>
-      <c r="E73" t="s">
-        <v>273</v>
-      </c>
-      <c r="F73" t="s">
-        <v>340</v>
-      </c>
-      <c r="G73" t="s">
-        <v>341</v>
-      </c>
-      <c r="H73" t="s">
-        <v>345</v>
-      </c>
-      <c r="I73" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_180224_E_900302025_29-09-2025_09h00m/U_180224_E_900302025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_180224_E_900302025_29-09-2025_09h00m/U_180224_E_900302025_29-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="225">
   <si>
     <t>Nº</t>
   </si>
@@ -463,625 +463,214 @@
     <t>Aparelho Telefônico Aparelho Telefônico Tipo: Mesa, Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz, Características Adicionais: Identificador Chamadas, Teclado Iluminado, Alimentação: Bivolt</t>
   </si>
   <si>
-    <t>Cartucho Toner Impressora Samsung Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 1,: Mlt-D116s</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original, Cor: Preta, Referência Cartucho 2: Cf280a</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 3: 78c0x10</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Amarela, Referência Cartucho 3: 78c0x40</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Magenta, Referência Cartucho 3: 78c0x30</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Ciano, Referência Cartucho 3: 78c0x20</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original, Cor: Preta, Referência Cartucho 3: W1030xz</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Magenta, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Amarela, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Ciano, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Preta, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Magenta, Referência Cartucho 2: T296320</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 2: T296120</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Amarela, Referência Cartucho 2: T296420</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Ciano, Referência Cartucho 2: T296220</t>
-  </si>
-  <si>
-    <t>Fita Adesiva Material: Plástico, Tipo: Rotuladora, Largura: 36MM, Cor: Incolor, Aplicação: Rotulador Eletrônico Marca Brother, Características Adicionais: Fita Laminada Tz</t>
-  </si>
-  <si>
-    <t>Processador Tipo: Lga 1700, Velocidade Processamento: 2.1GHZ, Modelo: Intel Core I7 12700, Características Adicionais: Gráfico Uhd Integrado, Barramento: Turbo Boost 4.3 Ghz, Memória Cache: 25MB</t>
+    <t>Cartucho Toner Impressora Samsung Tipo Cartucho: Original , Cor Tinta: Preta , Referência Cartucho 1,: Mlt-D116s.</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original , Cor: Preta , Referência Cartucho 2: Cf280a.</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Preta , Referência Cartucho 3: 78c0x10</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Amarela , Referência Cartucho 3: 78c0x40</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Magenta , Referência Cartucho 3: 78c0x30</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Ciano , Referência Cartucho 3: 78c0x20</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original , Cor: Preta , Referência Cartucho 3: W1030xz.</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal , Cor: Magenta , Aplicação: Impressora Epson L355 , Carga: Refil , Características Adicionais: Capacidade 70 Ml.</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal , Cor: Amarela , Aplicação: Impressora Epson L355 , Carga: Refil , Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal  , Cor: Ciano  , Aplicação: Impressora Epson L355  , Carga: Refil  , Características Adicionais: Capacidade 70 Ml.</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal , Cor: Preta , Aplicação: Impressora Epson L355 , Carga: Refil , Características Adicionais: Capacidade 70 Ml.</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Magenta , Referência Cartucho 2: T296320.</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Preta , Referência Cartucho 2: T296120.</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Amarela , Referência Cartucho 2: T296420.</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Ciano , Referência Cartucho 2: T296220.</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Plástico , Tipo: Rotuladora , Largura: 36 MM, Cor: Incolor , Aplicação: Rotulador Eletrônico Marca Brother , Características Adicionais: Fita Laminada Tz.</t>
+  </si>
+  <si>
+    <t>Processador Tipo: Lga 1700 , Velocidade Processamento: 2.1 GHZ, Modelo: Intel Core I7 12700 , Características Adicionais: Gráfico Uhd Integrado , Barramento: Turbo Boost 4.3 Ghz , Memória Cache: 25 M.</t>
   </si>
   <si>
     <t>Memoria Ram; de 32 Gb, Velocidade de 5200 Mhz; Ddr5; Com 288 Vias, Dual Channel, Suporte a Xmp 2.0, Com Dissipador de Calor Acoplado</t>
   </si>
   <si>
-    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama, Material Condutor: Cobre Eletrolítico, Tipo Condutor: Trançado Flexível, Tipo Cabo: Patch Cord, Cor: Azul, Padrão Cabeamento: Gigalan, Características Adicionais: Conectorizado, Categoria: 6, Comprimento: 1,5M, Conector: Rj-45</t>
-  </si>
-  <si>
-    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama, Material Condutor: Cobre Eletrolítico, Tipo Condutor: Trançado Flexível, Tipo Cabo: Patch Cord, Cor: Azul, Padrão Cabeamento: Gigalan, Características Adicionais: Conectorizado, Categoria: 6, Comprimento: 2,5M, Conector: Rj-45</t>
-  </si>
-  <si>
-    <t>Monitor Computador Tamanho Tela: 23 A 30POL, Tipo De Tela: Led, Formato Tela: Widescreen, Qualidade De Imagem: 4 K, Interatividade Da Tela: Sem Interatividade, Ajuste: Ajuste De Rotação, Altura E Inclinação Do Display, Alimentação: Bivolt, Garantia On Site: 12MESES</t>
-  </si>
-  <si>
-    <t>Water cooler, ARGB, 360MM; Velocidade da Ventoinha 800 a 1800 +10% RPM; Dimensões da Ventoinha 120 x 120 x 25 mm; Soquete Intel: LGA115X/1200/1700/1366/2011/2066. AMD: FM2/FM1/AM3+/AM3/AM2+/AM2/AM4/AMS5; Velocidade da Bomba 2600 +10 RPM</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original, Cor Tinta: Preto, Referência Cartucho 6: Hp 3ym79ab</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original, Cor Tinta: Colorida, Referência Cartucho 6: Hp 3ym78ab</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia Tipo Lâmpada: Led, Voltagem: BivoltV, Quantidade Entradas Vídeo: 2UN, Tipo Zoom: Motorizado, Tipo: Retroprojeção, Teto, Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast, Luminosidade Mínima: 5.000LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
-  </si>
-  <si>
-    <t>Memória Flash Capacidade: 16GB, Tipo: Pen Drive, Interface: Usb 2.0 E Windows Xp/Vista/7, Características Adicionais: Acabamento Emborrachado/Resistente À Agua</t>
-  </si>
-  <si>
-    <t>Memória Flash Capacidade: 64MB, Tipo: Usb Flash, Interface: Usb Plug &amp; Play, Velocidade Leitura: 7,2MB/S, Velocidade Gravação: 4MB/S, Características Adicionais: Sem Necessidade De Bateria,Fonte Interna Com Led,, Aplicação: Tranferência E Backup De Arquivos</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Aplicação: Caixa/Mesa Som, Tipo Cabo: Xlr Fêmea/Xlr Macho, Comprimento: 15M</t>
-  </si>
-  <si>
-    <t>Switch Quantidade Portas: 16UN, Tipo Portas: 1000 Base T, 100 Base Tx E 10 Base T, Em Modos Ful, Velocidade Porta: 20 Mbps, Alimentação: 110/220V, Frequência: 60HZ, Características Adicionais: Portas 10/100/1000, Autoense E Rj45, Aplicação: Conectar Microcomputador À Rede</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Material Condutor: Cobre, Material Isolamento Condutor: Pvc, Aplicação: Equipamentos Eletrônicos, Material Cobertura: Pvc Emborrachado, Comprimento: 10M, Conectores: Hdmi Macho, Material Conector: Ouro 24 Quilates</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas Tipo: Conjunto Com 152 Peças, Componentes: 152 Peças, Com Pontas Diversas, Componentes Adicionais: Chave De Fenda Rotating Cap Design., Aplicação: Manutenção Em Geral, Características Adicionais: Magnético, Antiderrapante, Precisão,</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas Componentes: 38 Pecas, Aplicação: Ferramentas Para Computador, Características Adicionais: Maleta Termoplástica</t>
-  </si>
-  <si>
-    <t>Conector Tipo: Macho, Aplicação: Cabo De Rede, Categoria: 6, Padrão: Rj45</t>
+    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama , Material Condutor: Cobre Eletrolítico , Tipo Condutor: Trançado Flexível , Tipo Cabo: Patch Cord , Cor: Azul , Padrão Cabeamento: Gigalan , Características Adicionais: Conectorizado , Categoria: 6 , Comprimento: 1,5 M, Conector: Rj- 45</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama , Material Condutor: Cobre Eletrolítico , Tipo Condutor: Trançado Flexível , Tipo Cabo: Patch Cord , Cor: Azul , Padrão Cabeamento: Gigalan , Características Adicionais: Conectorizado , Categoria: 6 , Comprimento: 2,5 M, Conector: Rj-45</t>
+  </si>
+  <si>
+    <t>Monitor Computador Tamanho Tela: 23 A 30 POL, Tipo De Tela: Led , Formato Tela: Widescreen , Qualidade De Imagem: 4 K , Interatividade Da Tela: Sem Interatividade, Ajuste: Ajuste De Rotação, Altura E Inclinação Do Display, Alimentação: Bivolt , Garantia On Site: 12 MESE</t>
+  </si>
+  <si>
+    <t>Water cooler, ARGB, 360MM;Velocidade da Ventoinha 800a 1800 ±10% RPM; Dimensões da Ventoinha 120 x 120 x 25 mm; Soquete Intel: LGA115X/1200/1700/1366/2011/2066.AMD: FM2/FM1/AM3+/AM3/AM2+/AM2/AM4/AM5; Velocidade da Bomba 2600 ±10 RPM</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original , Cor Tinta: Preto , Referência Cartucho 6: Hp 3ym79ab.</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original , Cor Tinta: Colorida , Referência Cartucho 6: Hp 3ym78ab.</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Tipo Lâmpada: Led , Voltagem: Bivolt V, Quantidade Entradas Vídeo: 2 UN, Tipo Zoom: Motorizado , Tipo: Retroprojeção, Teto , Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast , Luminosidade Mínima: 5.000 LM, Tipo Projeção: Frontal , Resolução: 1920 X 1200.</t>
+  </si>
+  <si>
+    <t>Memória Flash Capacidade: 16 GB, Tipo: Pen Drive , Interface: Usb 2.0 E Windows Xp/Vista/7 , Características Adicionais: Acabamento Emborrachado/Resistente À Agua.</t>
+  </si>
+  <si>
+    <t>Memória Flash Capacidade: 64 MB, Tipo: Usb Flash , Interface: Usb Plug &amp; Play , Velocidade Leitura: 7,2 MB/S, Velocidade Gravação: 4 MB/S, Características Adicionais: Sem Necessidade De Bateria,Fonte Interna Com Led, , Aplicação: Tranferência E Backup De Arquivos.</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Aplicação: Caixa/Mesa Som , Tipo Cabo: Xlr Fêmea/Xlr Macho , Comprimento: 15M.</t>
+  </si>
+  <si>
+    <t>Switch Quantidade Portas: 16 UN, Tipo Portas: 1000 Base T, 100 Base Tx E 10 Base T, Em Modos Ful , Velocidade Porta: 20 Mbps , Alimentação: 110/220 V, Frequência: 60 HZ, Características Adicionais: Portas 10/100/1000, Autoense E Rj45 , Aplicação: Conectar Microcomputador À Rede.</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Material Condutor: Cobre , Material Isolamento Condutor: Pvc , Aplicação: Equipamentos Eletrônicos , Material Cobertura: Pvc Emborrachado , Comprimento: 10 M, Conectores: Hdmi Macho , Material Conector: Ouro 24 Quilates.</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Tipo: Conjunto Com 152 Peças , Componentes: 152 Peças, Com Pontas Diversas , Componentes Adicionais: Chave De Fenda Rotating Cap Design. , Aplicação: Manutenção Em Geral , Características Adicionais: Magnético, Antiderrapante, Precisão.</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Componentes: 38 Pecas , Aplicação: Ferramentas Para Computador , Características Adicionais: Maleta Termoplástica.</t>
+  </si>
+  <si>
+    <t>Conector Tipo: Macho , Aplicação: Cabo De Rede , Categoria: 6 , Padrão: Rj45.</t>
   </si>
   <si>
     <t>Conector , Tipo: Rj 45 Macho vazado, Número Conectores: 8 UN, Características Adicionais: Não Blindado Para Fio Sólido, Categoria 6, Transpa</t>
   </si>
   <si>
-    <t>Pente De Memória Capacidade Memória: 8GB, Tipo: Ddr4, Velocidade Barramento: 2.133MHZ, Aplicação: Notebook</t>
-  </si>
-  <si>
-    <t>Pente De Memória Capacidade Memória: 16GB, Tipo: Ddr3, Características Adicionais: Sdram/Dimm, Frequência Clock: 1.333 MHZ</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Disco Ssd, Capacidade: Mínimo 250GB, Velocidade: 3300MB/S, Aplicação: Microcomputador</t>
-  </si>
-  <si>
-    <t>Teclado Microcomputador Tipo: Multimidia, Tipo Conector: Usb, Conectividade: Com Fio</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Vertical, Sensor: Laser, Tipo Conector: Usb, Conectividade: Sem Fio</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Padrão, Sensor: Led, Tipo Conector: Usb, Conectividade: Com Fio</t>
-  </si>
-  <si>
-    <t>Estabilizador Tensão Tensão Alimentação Entrada: 115/127/220V, Quantidade Tomadas Saída: 6, Aplicação: Informática, Tensão Saída: 110V, Capacidade Nominal: 1000VA</t>
-  </si>
-  <si>
-    <t>Sistema Circuito Fechado Tv Componentes: Gravador Nvr 16 Canais, Tipo Sistema: Gravação Digital, Aplicação: Sistema De Segurança, Características Adicionais: Suportar 08 HdS De Até 16tb</t>
-  </si>
-  <si>
-    <t>Mouse Pad Material: Borracha Neoprene, Comprimento: 25CM, Largura: 22CM, Espessura: 2,5MM, Características Adicionais: Ergonômico, Com Apoio Para O Punho Em Gel, Cor: Azul</t>
-  </si>
-  <si>
-    <t>Caixa Som Potência: Por Canal 3W, Voltagem: 5 VdcV, Aplicação: Computador, Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De Volume</t>
-  </si>
-  <si>
-    <t>Extensão Elétrica Tipo: Carretel, Comprimento: 30M, Componentes: 5 Tomadas, 2pT, Seção Nominal: 2,5MM2, Número Pólos: 2p T, Formação Do Cabo: 3 X 2,5MM2, Referência: Force Line 0181200019, Tensão Nominal: 110/220VCA, Temperatura Operação: 70, Formato Contato: Padrão Brasileiro, Normas Técnicas: Nbr 14136, Grau Proteção: Ip44, Potência Máxima: 2.200 W, Material: Termoplástico Anti-Chama, Corrente Nominal: 10A, Tensão Entrada: 110-127V, Conexões: 1(Uma) Entrada 2pT E 5 Saídas 2pT</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Disco Ssd, Capacidade: 500GB, Tamanho: 22 X 80MM, Aplicação: Microcomputador, Características Adicionais: Formato: M.2 2280, Interface: Nvme Pcie 4.0 X 4</t>
-  </si>
-  <si>
-    <t>Alicate Para Crimpar RJ45 de passagem, concetor vazado ; cat 5e, cat6,cat7. Modelo de referencia: GTL-3436 gettalan ou 35030017 furukawa</t>
-  </si>
-  <si>
-    <t>Disco Rígido Removível Capacidade Memória: 2TB., Velocidade Transferência: 4.8GB/S, Interface: Usb 3.0, Aplicação: Computador, Características Adicionais: Memória Cache Igual Ou Superior A 2mb, Velocidade: 7.200RPM</t>
-  </si>
-  <si>
-    <t>Cabo Usb Comprimento: 5M, Tipo: Usb 3.0, Aplicação: Informática, Características Adicionais: Conectores USB x USB Tipo -C</t>
-  </si>
-  <si>
-    <t>Cabo Rede Computador Material Revestimento: Polietileno Especial, Material Condutor: Cobre Nú, Bitola Condutor: 24AWG, Tipo Condutor: Trançado 4 Pares, Tipo Cabo: 6 E, Cor: Azul, Padrão Cabeamento: Com Blindagem Helicoidal Em Fita Metalizada, Características Adicionais: Cabo Utp Blindado Com Marcação Seqüencial Métrica, Categoria: 6e, Aplicação: Conexão De Rede, Material Isolamento Condutor: Pvc Não Propagante À Chama, Comprimento: 305M</t>
-  </si>
-  <si>
-    <t>Fechadura Biometrica Reconhecimento De Impressões Digitais: 50, Acionamento: Impressão Digital, Leitura: Digital, Alimentação: Pilhas E/Ou Baterias, Características Adicionais: Resolução Mínima 300 Dpi, Chave Emergência, Sistema De Programação: Permite Excluir Ou Substituir Impressões Digitais</t>
-  </si>
-  <si>
-    <t>Disco Magnético Memória: 1 TerabyteTB., Aplicação: Uso Externo, Modelo: Ssd, Características Adicionais: Compatível Com Usb 3.1</t>
-  </si>
-  <si>
-    <t>Unidade Imagem Referência: Mlt-R116, Tipo Uso: Impressora Sansung, Cor: Preta, Durabilidade: 9.000 Cópias, Tipo: Original</t>
-  </si>
-  <si>
-    <t>Régua Elétrica Material: Chapa Plástica De Alto Impacto, Quantidade Tomadas Saída: 4 (2pT), Características Adicionais: Protetor Contra Surtos De Tensão Chave Liga/Desl, Potência Nominal: 127V, Comprimento Cabo: 1,3M</t>
-  </si>
-  <si>
-    <t>Placa Controladora Vídeo Tamanho Memória: 8GB, Resolução Imagem: 7680 X 4320DPI, Padrão Imagem: Vga-Dvi-Hdmi, Modelo: Nvidia Geforce Rtx 3070, Barramento: Pci Expres 4.0 - Hdmi 2.1, Padrão: Ddr6</t>
-  </si>
-  <si>
-    <t>Placa Controladora Vídeo Tamanho Memória: 4GB, Resolução Imagem: 1920 X 1080DPI, Padrão Imagem: Vga-Dvi-Hdmi, Características Adicionais: 700 Mhz</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Hd Purple, Capacidade: 8TB., Aplicação: Equipamentos De Segurança Eletrônica - Cftv, Características Adicionais: Modelo De Referência: Wd82purz, Memória Cache: 256MB</t>
-  </si>
-  <si>
-    <t>Caneta - Indicador Material: Aço, Tipo Indicador: Laser, Aplicação: Apresentador De Slides Com Laser Pointer, Características Adicionais: Sem Fio, Alcance 15 Metros, Interface Usb, Estojo</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Vertical, Sensor: Laser, Tipo Conector: Usb, Conectividade: Com Fio</t>
-  </si>
-  <si>
-    <t>Microfone Tipo: Sem Fio, Alimentação: Bateria 9V, Tipo Receptor: Antena Externa, Características Adicionais: 10 Canais E Oito Sistemas Compatíveis, Alcance: 75M, Alimentação Externa Receptor: 120V, Acessórios: Conector 1/4 E Xlr, Encaixe Para Pedestal, Referência Fabricante: Shure P24/P58</t>
-  </si>
-  <si>
-    <t>Placa Mãe Componentes: Chipset Intel B760, Aplicação: Microcomputador, Tipo Portas: 8 X Usb, Rj-45 2.5gb, Hdmi, Displayport, Tipo Conectores: 4 X Sata3 6gb/S (Suporta Raid 0/1/5/10), Memória Expansão: 192GB, Características Adicionais: Wifi 6e Bluetooth, Slots: 3 X M.2, 3 X Pci-Express, Memória Ram: 4 Slots Ddr5, Fonte Alimentação: Atx, Padrão: Micro Atx, Socket: Lga 1700, Referência: Asus Tuf Gaming</t>
-  </si>
-  <si>
-    <t>Filtro Linha Tensão Alimentação: 110/220V, Quantidade Saída: 5 Tomadas Para Computador, Comprimento Cabo: 3M</t>
+    <t>Pente De Memória Capacidade Memória: 8 GB, Tipo: Ddr4 , Velocidade Barramento: 2.133 MHZ, Aplicação: Notebook.</t>
+  </si>
+  <si>
+    <t>Pente De Memória Capacidade Memória: 16 GB, Tipo: Ddr3 , Características Adicionais: Sdram/Dimm , Frequência Clock: 1.333 MH.</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Disco Ssd , Capacidade: Mínimo 250 GB, Velocidade: 3300 MB/S, Aplicação: Microcomputador.</t>
+  </si>
+  <si>
+    <t>Teclado Microcomputador Tipo: Multimidia , Tipo Conector: Usb , Conectividade: Com Fio.</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Vertical , Sensor: Laser , Tipo Conector: Usb , Conectividade: Sem Fio.</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Padrão , Sensor: Led , Tipo Conector: Usb , Conectividade: Com Fio.</t>
+  </si>
+  <si>
+    <t>Estabilizador Tensão Tensão Alimentação Entrada: 115/127/220 V, Quantidade Tomadas Saída: 6 , Aplicação: Informática , Tensão Saída: 110 V, Capacidade Nominal: 1000 V.</t>
+  </si>
+  <si>
+    <t>Sistema Circuito Fechado Tv Componentes: Gravador Nvr 16 Canais , Tipo Sistema: Gravação Digital , Aplicação: Sistema De Segurança , Características Adicionais: Suportar 08 HdS De Até 16tb.</t>
+  </si>
+  <si>
+    <t>Mouse Pad Material: Borracha Neoprene , Comprimento: 25 CM, Largura: 22 CM, Espessura: 2,5 MM, Características Adicionais: Ergonômico, Com Apoio Para O Punho Em Gel , Cor: Azul.</t>
+  </si>
+  <si>
+    <t>Caixa Som Potência: Por Canal 3 W, Voltagem: 5 Vdc V, Aplicação: Computador , Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De Volume.</t>
+  </si>
+  <si>
+    <t>Extensão Elétrica Tipo: Carretel , Comprimento: 30 M, Componentes: 5 Tomadas, 2p+T , Seção Nominal: 2,5 MM2, Número Pólos: 2p + T , Formação Do Cabo: 3 X 2,5 MM2, Referência: Force Line 0181200019 , Tensão Nominal: 110/220 VCA, Temperatura Operação: 70° , Formato Contato: Padrão Brasileiro , Normas Técnicas: Nbr 14136 , Grau Proteção: Ip44 , Potência Máxima: 2.200 W, Material: Termoplástico Anti-Chama , Corrente Nominal: 10 A, Tensão Entrada: 110-127 V, Conexões: 1(Uma) Entrada 2p+T E 5 Saídas 2p+T.</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Disco Ssd , Capacidade: 500 GB, Tamanho: 22 X 80 MM, Aplicação: Microcomputador , Características Adicionais: Formato: M.2 2280, Interface: Nvme Pcie 4.0 X 4.</t>
+  </si>
+  <si>
+    <t>Alicate Para Climpar Material: Metal , Características Adicionais: Lâminas De Corte De Excesso , Material Cabo: Plástico , Tipo Corte: Punch Down Inserção Femea , Comprimento: 135 MM, Uso: Conectar E Cortar Os Fios Nos Módulos Rj11 E Rj45.</t>
+  </si>
+  <si>
+    <t>Disco Rígido Removível Capacidade Memória: 2 TB., Velocidade Transferência: 4.8 GB/S, Interface: Usb 3.0 , Aplicação: Computador , Características Adicionais: Memória Cache Igual Ou Superior A 2mb , Velocidade: 7.200 RPM.</t>
+  </si>
+  <si>
+    <t>Cabo Usb Comprimento: 5 M, Tipo: Usb 3.0 , Aplicação: Informática , Características Adicionais: Conectores USB x USB Tipo -C</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Polietileno Especial , Material Condutor: Cobre Nú , Bitola Condutor: 24 AWG, Tipo Condutor: Trançado 4 Pares , Tipo Cabo: 6 E , Cor: Azul , Padrão Cabeamento: Com Blindagem Helicoidal Em Fita Metalizada , Características Adicionais: Cabo Utp Blindado Com Marcação Seqüencial Métrica , Categoria: 6e , Aplicação: Conexão De Rede , Material Isolamento Condutor: Pvc Não Propagante À Chama , Comprimento: 305.</t>
+  </si>
+  <si>
+    <t>Fechadura Biometrica Reconhecimento De Impressões Digitais: 50 , Acionamento: Impressão Digital , Leitura: Digital , Alimentação: Pilhas E /Ou Baterias , Características Adicionais: Resolução Mínima 300 Dpi, Chave Emergência , Sistema De Programação: Permite Excluir Ou Substituir Impressões Digitais.</t>
+  </si>
+  <si>
+    <t>Disco Magnético Memória: 1 Terabyte TB., Aplicação: Uso Externo , Modelo: Ssd , Características Adicionais: Compatível Com Usb 3.1.</t>
+  </si>
+  <si>
+    <t>Unidade Imagem Referência: Mlt-R116 , Tipo Uso: Impressora Sansung , Cor: Preta , Durabilidade: 9.000 Cópias , Tipo: Original.</t>
+  </si>
+  <si>
+    <t>Régua Elétrica Material: Chapa Plástica De Alto Impacto , Quantidade Tomadas Saída: 4 (2p+T) , Características Adicionais: Protetor Contra Surtos De Tensão; Chave Liga/Desl, Potência Nominal: 127 V, Comprimento Cabo: 1,3.</t>
+  </si>
+  <si>
+    <t>Placa Controladora Vídeo Tamanho Memória: 8 GB, Resolução Imagem: 7680 X 4320 DPI, Padrão Imagem: Vga-Dvi-Hdmi , Modelo: Nvidia Geforce Rtx 3070 , Barramento: Pci Expres 4.0 - Hdmi 2.1 , Padrão: Ddr6.</t>
+  </si>
+  <si>
+    <t>Placa Controladora Vídeo Tamanho Memória: 4 GB, Resolução Imagem: 1920 X 1080 DPI, Padrão Imagem: Vga-Dvi-Hdmi , Características Adicionais: 700 Mhz.</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Hd Purple , Capacidade: 8 TB., Aplicação: Equipamentos De Segurança Eletrônica -</t>
+  </si>
+  <si>
+    <t>Caneta - Indicador Material: Aço , Tipo Indicador: Laser , Aplicação: Apresentador De Slides Com Ponteiro Laser</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Vertical , Sensor: Laser , Tipo Conector: Usb , Conectividade: Com Fio</t>
+  </si>
+  <si>
+    <t>Microfone Tipo: Sem Fio, Alimentação: Bateria 9 V, Tipo Receptor: Antena Externa, Características</t>
+  </si>
+  <si>
+    <t>Placa Mãe Componentes: Chipset Intel B760 , Aplicação: Microcomputador , Tipo Portas: 8 X Usb,</t>
+  </si>
+  <si>
+    <t>Filtro Linha Tensão Alimentação: 110/220 V, Quantidade Saída: 5 Tomadas Para Computador, Comprimento Cabo: 3M</t>
   </si>
   <si>
     <t>Suporte Tipo: Ajustável, Formato: Retangular, Material: Plástico, Aplicação: Apoio Para Notebook</t>
   </si>
   <si>
-    <t>Televisor Tamanho Tela: 43POL, Voltagem: BivoltV, Características Adicionais: Smart Tv, 4 K, Wifi. Entradas Hdmi/Usb, Conversor, Tipo Tela: Led, Acessórios: Controle Remoto</t>
-  </si>
-  <si>
-    <t>Multímetro Tensão: 1.000V, Tensão Ac: 1.000V, Corrente Dc: 1.000A, Corrente Ac: 10A, Resistência: 50MOHM, Frequência: 0,01 A 100KHZ, Características Adicionais: Display Digital, Capacitância: 1nf A 10.000mf, Temperatura: 50C A 1.200C</t>
-  </si>
-  <si>
-    <t>Apresentador Multimídia Distância Mínima: 10M, Freqüência: 2,4GHZ, Compatibilidade: Windows, Mac, Pc, Notebook, Fonte Alimentação: Bateria, Características Adicionais: Usb E Sem Fio</t>
-  </si>
-  <si>
-    <t>Secador / Soprador Tipo: Portátil, Tensão Alimentação: 220V, Potência: 500W, Uso: Limpeza Material Informática</t>
-  </si>
-  <si>
-    <t>Bateria Recarregável Aplicação: Equipamentos Eletrônicos, Sistema Eletroquímico: Ni-Mh, Tensão Nominal: 9V, Capacidade Nominal 1: 450MAH</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Material Condutor: Cobre, Aplicação: Vídeo Tv Projetores Dvds Receivers Sinais S-Vhs, Características Adicionais: Balanceado, Blindado E Flexível, Tipo Cabo: Hdmi, Conectores: Macho-Macho</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico Tipo: Mesa, Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz, Características Adicionais: Identificador Chamadas, Teclado Iluminado, Alimentação: Bivolt</t>
-  </si>
-  <si>
-    <t>169,59</t>
-  </si>
-  <si>
-    <t>125,01</t>
-  </si>
-  <si>
-    <t>694,09</t>
-  </si>
-  <si>
-    <t>697,99</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>663,60</t>
-  </si>
-  <si>
-    <t>304,34</t>
-  </si>
-  <si>
-    <t>60,34</t>
-  </si>
-  <si>
-    <t>62,00</t>
-  </si>
-  <si>
-    <t>73,03</t>
-  </si>
-  <si>
-    <t>53,87</t>
-  </si>
-  <si>
-    <t>31,30</t>
-  </si>
-  <si>
-    <t>36,67</t>
-  </si>
-  <si>
-    <t>39,34</t>
-  </si>
-  <si>
-    <t>39,12</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>1888,33</t>
-  </si>
-  <si>
-    <t>1356,30</t>
-  </si>
-  <si>
-    <t>27,30</t>
-  </si>
-  <si>
-    <t>28,52</t>
-  </si>
-  <si>
-    <t>1616,44</t>
-  </si>
-  <si>
-    <t>771,88</t>
-  </si>
-  <si>
-    <t>144,93</t>
-  </si>
-  <si>
-    <t>135,00</t>
-  </si>
-  <si>
-    <t>4967,99</t>
-  </si>
-  <si>
-    <t>24,54</t>
-  </si>
-  <si>
-    <t>67,30</t>
-  </si>
-  <si>
-    <t>90,75</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>71,91</t>
-  </si>
-  <si>
-    <t>1500,35</t>
-  </si>
-  <si>
-    <t>477,88</t>
-  </si>
-  <si>
-    <t>41,76</t>
-  </si>
-  <si>
-    <t>2,00</t>
-  </si>
-  <si>
-    <t>137,06</t>
-  </si>
-  <si>
-    <t>186,08</t>
-  </si>
-  <si>
-    <t>294,64</t>
-  </si>
-  <si>
-    <t>88,42</t>
-  </si>
-  <si>
-    <t>221,40</t>
-  </si>
-  <si>
-    <t>40,50</t>
-  </si>
-  <si>
-    <t>302,75</t>
-  </si>
-  <si>
-    <t>2675,18</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>50,22</t>
-  </si>
-  <si>
-    <t>216,28</t>
-  </si>
-  <si>
-    <t>439,90</t>
-  </si>
-  <si>
-    <t>141,23</t>
-  </si>
-  <si>
-    <t>515,56</t>
-  </si>
-  <si>
-    <t>71,62</t>
-  </si>
-  <si>
-    <t>902,30</t>
-  </si>
-  <si>
-    <t>579,90</t>
-  </si>
-  <si>
-    <t>705,94</t>
-  </si>
-  <si>
-    <t>93,71</t>
-  </si>
-  <si>
-    <t>49,19</t>
-  </si>
-  <si>
-    <t>2769,47</t>
-  </si>
-  <si>
-    <t>474,75</t>
-  </si>
-  <si>
-    <t>2143,23</t>
-  </si>
-  <si>
-    <t>103,65</t>
-  </si>
-  <si>
-    <t>102,86</t>
-  </si>
-  <si>
-    <t>6273,33</t>
-  </si>
-  <si>
-    <t>1349,00</t>
-  </si>
-  <si>
-    <t>45,36</t>
-  </si>
-  <si>
-    <t>84,88</t>
-  </si>
-  <si>
-    <t>2233,71</t>
-  </si>
-  <si>
-    <t>446,50</t>
-  </si>
-  <si>
-    <t>326,63</t>
-  </si>
-  <si>
-    <t>611,05</t>
-  </si>
-  <si>
-    <t>105,74</t>
-  </si>
-  <si>
-    <t>121,33</t>
-  </si>
-  <si>
-    <t>217,00</t>
-  </si>
-  <si>
-    <t>2543,90</t>
-  </si>
-  <si>
-    <t>2500,25</t>
-  </si>
-  <si>
-    <t>5552,72</t>
-  </si>
-  <si>
-    <t>8375,93</t>
-  </si>
-  <si>
-    <t>4550,00</t>
-  </si>
-  <si>
-    <t>4645,23</t>
-  </si>
-  <si>
-    <t>7608,60</t>
-  </si>
-  <si>
-    <t>362,06</t>
-  </si>
-  <si>
-    <t>372,00</t>
-  </si>
-  <si>
-    <t>438,21</t>
-  </si>
-  <si>
-    <t>323,20</t>
-  </si>
-  <si>
-    <t>250,40</t>
-  </si>
-  <si>
-    <t>366,68</t>
-  </si>
-  <si>
-    <t>314,68</t>
-  </si>
-  <si>
-    <t>313,00</t>
-  </si>
-  <si>
-    <t>675,00</t>
-  </si>
-  <si>
-    <t>5665,00</t>
-  </si>
-  <si>
-    <t>10850,40</t>
-  </si>
-  <si>
-    <t>545,98</t>
-  </si>
-  <si>
-    <t>570,40</t>
-  </si>
-  <si>
-    <t>24246,65</t>
-  </si>
-  <si>
-    <t>2315,63</t>
-  </si>
-  <si>
-    <t>1449,28</t>
-  </si>
-  <si>
-    <t>1350,00</t>
-  </si>
-  <si>
-    <t>14903,97</t>
-  </si>
-  <si>
-    <t>122,68</t>
-  </si>
-  <si>
-    <t>336,49</t>
-  </si>
-  <si>
-    <t>181,50</t>
-  </si>
-  <si>
-    <t>1536,00</t>
-  </si>
-  <si>
-    <t>503,34</t>
-  </si>
-  <si>
-    <t>3000,70</t>
-  </si>
-  <si>
-    <t>955,75</t>
-  </si>
-  <si>
-    <t>835,29</t>
-  </si>
-  <si>
-    <t>1000,00</t>
-  </si>
-  <si>
-    <t>1370,60</t>
-  </si>
-  <si>
-    <t>1860,80</t>
-  </si>
-  <si>
-    <t>7365,95</t>
-  </si>
-  <si>
-    <t>4420,91</t>
-  </si>
-  <si>
-    <t>3320,97</t>
-  </si>
-  <si>
-    <t>1620,00</t>
-  </si>
-  <si>
-    <t>6055,01</t>
-  </si>
-  <si>
-    <t>5350,35</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>502,20</t>
-  </si>
-  <si>
-    <t>6598,43</t>
-  </si>
-  <si>
-    <t>423,70</t>
-  </si>
-  <si>
-    <t>3093,39</t>
-  </si>
-  <si>
-    <t>716,22</t>
-  </si>
-  <si>
-    <t>1804,61</t>
-  </si>
-  <si>
-    <t>1411,88</t>
-  </si>
-  <si>
-    <t>468,57</t>
-  </si>
-  <si>
-    <t>2213,45</t>
-  </si>
-  <si>
-    <t>8308,40</t>
-  </si>
-  <si>
-    <t>949,50</t>
-  </si>
-  <si>
-    <t>6429,69</t>
-  </si>
-  <si>
-    <t>207,30</t>
-  </si>
-  <si>
-    <t>1028,58</t>
-  </si>
-  <si>
-    <t>4047,00</t>
-  </si>
-  <si>
-    <t>680,40</t>
-  </si>
-  <si>
-    <t>848,82</t>
-  </si>
-  <si>
-    <t>15636,00</t>
-  </si>
-  <si>
-    <t>1786,00</t>
-  </si>
-  <si>
-    <t>979,89</t>
-  </si>
-  <si>
-    <t>1222,10</t>
-  </si>
-  <si>
-    <t>528,69</t>
-  </si>
-  <si>
-    <t>606,66</t>
-  </si>
-  <si>
-    <t>2170,00</t>
+    <t>Televisor Tamanho Tela: 43 POL, Voltagem: Bivolt V, Características Adicionais: Smart Tv, 4K, Wifi. Entradas Hdmi/Usb, Conversor , Tipo</t>
+  </si>
+  <si>
+    <t>Multímetro Tensão: 1.000 V, Tensão Ac: 1.000 V, Corrente Dc: 1.000 A, Corrente Ac: 10 A, Resistência: 50 MOHM, Frequência: 0,01 A 100</t>
+  </si>
+  <si>
+    <t>Apresentador Multimídia Distância Mínima: 10 M, Freqüência: 2,4 GHZ, Compatibilidade: Windows, Mac, Pc, Notebook , Fonte Alimentação:</t>
+  </si>
+  <si>
+    <t>Secador / Soprador Tipo: Portátil, Tensão Alimentação: 110 V, Potência: 500 W, Uso: Limpeza Material Informática</t>
+  </si>
+  <si>
+    <t>Bateria Recarregável Aplicação: Equipamentos Eletrônicos, Sistema Eletroquímico: Ni-Mh, Tensão Nominal: 9 V, Capacidade Nominal 1: 450</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Material Condutor: Cobre , Aplicação: Vídeo Tv Projetores Dvds Receptores Sinais S-Vhs , Características Adicionais:</t>
+  </si>
+  <si>
+    <t>Aparelho Telefônico Tipo: Mesa , Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz , Características Adicionais: Identificador</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1505,20 +1094,20 @@
       <c r="D2">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" t="s">
-        <v>289</v>
+      <c r="E2">
+        <v>169.5933333333333</v>
+      </c>
+      <c r="F2">
+        <v>2543.9</v>
       </c>
       <c r="G2" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I2" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1534,20 +1123,17 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>220</v>
-      </c>
-      <c r="F3" t="s">
-        <v>290</v>
+      <c r="F3">
+        <v>2500.25</v>
       </c>
       <c r="G3" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1563,20 +1149,17 @@
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" t="s">
-        <v>291</v>
+      <c r="F4">
+        <v>5552.72</v>
       </c>
       <c r="G4" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H4" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1592,20 +1175,17 @@
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F5" t="s">
-        <v>292</v>
+      <c r="F5">
+        <v>8375.93</v>
       </c>
       <c r="G5" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H5" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I5" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1621,20 +1201,20 @@
       <c r="D6">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" t="s">
-        <v>293</v>
+      <c r="E6">
+        <v>650</v>
+      </c>
+      <c r="F6">
+        <v>4550</v>
       </c>
       <c r="G6" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H6" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I6" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1650,20 +1230,20 @@
       <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" t="s">
-        <v>294</v>
+      <c r="E7">
+        <v>663.6042857142857</v>
+      </c>
+      <c r="F7">
+        <v>4645.23</v>
       </c>
       <c r="G7" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I7" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1679,20 +1259,20 @@
       <c r="D8">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" t="s">
-        <v>295</v>
+      <c r="E8">
+        <v>304.344</v>
+      </c>
+      <c r="F8">
+        <v>7608.599999999999</v>
       </c>
       <c r="G8" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H8" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I8" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1708,20 +1288,17 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" t="s">
-        <v>296</v>
+      <c r="F9">
+        <v>362.06</v>
       </c>
       <c r="G9" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H9" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I9" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1737,20 +1314,17 @@
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" t="s">
-        <v>297</v>
+      <c r="F10">
+        <v>372</v>
       </c>
       <c r="G10" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I10" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1766,20 +1340,17 @@
       <c r="D11">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>298</v>
+      <c r="F11">
+        <v>438.21</v>
       </c>
       <c r="G11" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I11" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1795,20 +1366,17 @@
       <c r="D12">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" t="s">
-        <v>299</v>
+      <c r="F12">
+        <v>323.2</v>
       </c>
       <c r="G12" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H12" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I12" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1824,20 +1392,17 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="E13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" t="s">
-        <v>300</v>
+      <c r="F13">
+        <v>250.4</v>
       </c>
       <c r="G13" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H13" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I13" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1853,20 +1418,17 @@
       <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" t="s">
-        <v>301</v>
+      <c r="F14">
+        <v>366.68</v>
       </c>
       <c r="G14" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I14" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1882,20 +1444,17 @@
       <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" t="s">
-        <v>302</v>
+      <c r="F15">
+        <v>314.68</v>
       </c>
       <c r="G15" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H15" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I15" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1911,20 +1470,17 @@
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" t="s">
-        <v>303</v>
+      <c r="F16">
+        <v>313</v>
       </c>
       <c r="G16" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I16" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1940,20 +1496,20 @@
       <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>234</v>
-      </c>
-      <c r="F17" t="s">
-        <v>304</v>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>675</v>
       </c>
       <c r="G17" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I17" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1969,20 +1525,20 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>235</v>
-      </c>
-      <c r="F18" t="s">
-        <v>305</v>
+      <c r="E18">
+        <v>1888.333333333333</v>
+      </c>
+      <c r="F18">
+        <v>5665</v>
       </c>
       <c r="G18" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H18" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I18" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1998,20 +1554,17 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>236</v>
-      </c>
-      <c r="F19" t="s">
-        <v>306</v>
+      <c r="F19">
+        <v>10850.4</v>
       </c>
       <c r="G19" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H19" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I19" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2027,20 +1580,17 @@
       <c r="D20">
         <v>20</v>
       </c>
-      <c r="E20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" t="s">
-        <v>307</v>
+      <c r="F20">
+        <v>545.98</v>
       </c>
       <c r="G20" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I20" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2056,20 +1606,17 @@
       <c r="D21">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F21" t="s">
-        <v>308</v>
+      <c r="F21">
+        <v>570.4</v>
       </c>
       <c r="G21" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I21" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -2085,20 +1632,20 @@
       <c r="D22">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" t="s">
-        <v>309</v>
+      <c r="E22">
+        <v>1616.443333333333</v>
+      </c>
+      <c r="F22">
+        <v>24246.65</v>
       </c>
       <c r="G22" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H22" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I22" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -2114,20 +1661,20 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" t="s">
-        <v>310</v>
+      <c r="E23">
+        <v>771.8766666666667</v>
+      </c>
+      <c r="F23">
+        <v>2315.63</v>
       </c>
       <c r="G23" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H23" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I23" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -2143,20 +1690,17 @@
       <c r="D24">
         <v>10</v>
       </c>
-      <c r="E24" t="s">
-        <v>241</v>
-      </c>
-      <c r="F24" t="s">
-        <v>311</v>
+      <c r="F24">
+        <v>1449.28</v>
       </c>
       <c r="G24" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I24" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2172,20 +1716,17 @@
       <c r="D25">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
-        <v>242</v>
-      </c>
-      <c r="F25" t="s">
-        <v>312</v>
+      <c r="F25">
+        <v>1350</v>
       </c>
       <c r="G25" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H25" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I25" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2201,20 +1742,20 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" t="s">
-        <v>243</v>
-      </c>
-      <c r="F26" t="s">
-        <v>313</v>
+      <c r="E26">
+        <v>4967.99</v>
+      </c>
+      <c r="F26">
+        <v>14903.97</v>
       </c>
       <c r="G26" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H26" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I26" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2230,20 +1771,20 @@
       <c r="D27">
         <v>5</v>
       </c>
-      <c r="E27" t="s">
-        <v>244</v>
-      </c>
-      <c r="F27" t="s">
-        <v>314</v>
+      <c r="E27">
+        <v>24.536</v>
+      </c>
+      <c r="F27">
+        <v>122.68</v>
       </c>
       <c r="G27" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I27" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2259,20 +1800,20 @@
       <c r="D28">
         <v>5</v>
       </c>
-      <c r="E28" t="s">
-        <v>245</v>
-      </c>
-      <c r="F28" t="s">
-        <v>315</v>
+      <c r="E28">
+        <v>67.298</v>
+      </c>
+      <c r="F28">
+        <v>336.49</v>
       </c>
       <c r="G28" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I28" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2288,20 +1829,17 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>246</v>
-      </c>
-      <c r="F29" t="s">
-        <v>316</v>
+      <c r="F29">
+        <v>181.5</v>
       </c>
       <c r="G29" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H29" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I29" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2317,20 +1855,17 @@
       <c r="D30">
         <v>2</v>
       </c>
-      <c r="E30" t="s">
-        <v>247</v>
-      </c>
-      <c r="F30" t="s">
-        <v>317</v>
+      <c r="F30">
+        <v>1536</v>
       </c>
       <c r="G30" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H30" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I30" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2346,20 +1881,20 @@
       <c r="D31">
         <v>7</v>
       </c>
-      <c r="E31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F31" t="s">
-        <v>318</v>
+      <c r="E31">
+        <v>71.90571428571428</v>
+      </c>
+      <c r="F31">
+        <v>503.34</v>
       </c>
       <c r="G31" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H31" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I31" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2375,20 +1910,17 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>249</v>
-      </c>
-      <c r="F32" t="s">
-        <v>319</v>
+      <c r="F32">
+        <v>3000.7</v>
       </c>
       <c r="G32" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I32" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2404,20 +1936,17 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" t="s">
-        <v>320</v>
+      <c r="F33">
+        <v>955.75</v>
       </c>
       <c r="G33" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I33" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2433,20 +1962,17 @@
       <c r="D34">
         <v>20</v>
       </c>
-      <c r="E34" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" t="s">
-        <v>321</v>
+      <c r="F34">
+        <v>835.29</v>
       </c>
       <c r="G34" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H34" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I34" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2462,20 +1988,17 @@
       <c r="D35">
         <v>500</v>
       </c>
-      <c r="E35" t="s">
-        <v>252</v>
-      </c>
-      <c r="F35" t="s">
-        <v>322</v>
+      <c r="F35">
+        <v>1000</v>
       </c>
       <c r="G35" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H35" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I35" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2491,20 +2014,17 @@
       <c r="D36">
         <v>10</v>
       </c>
-      <c r="E36" t="s">
-        <v>253</v>
-      </c>
-      <c r="F36" t="s">
-        <v>323</v>
+      <c r="F36">
+        <v>1370.6</v>
       </c>
       <c r="G36" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H36" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I36" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2520,20 +2040,17 @@
       <c r="D37">
         <v>10</v>
       </c>
-      <c r="E37" t="s">
-        <v>254</v>
-      </c>
-      <c r="F37" t="s">
-        <v>324</v>
+      <c r="F37">
+        <v>1860.8</v>
       </c>
       <c r="G37" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H37" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I37" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2549,20 +2066,20 @@
       <c r="D38">
         <v>25</v>
       </c>
-      <c r="E38" t="s">
-        <v>255</v>
-      </c>
-      <c r="F38" t="s">
-        <v>325</v>
+      <c r="E38">
+        <v>294.638</v>
+      </c>
+      <c r="F38">
+        <v>7365.95</v>
       </c>
       <c r="G38" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H38" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I38" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2578,20 +2095,17 @@
       <c r="D39">
         <v>50</v>
       </c>
-      <c r="E39" t="s">
-        <v>256</v>
-      </c>
-      <c r="F39" t="s">
-        <v>326</v>
+      <c r="F39">
+        <v>4420.91</v>
       </c>
       <c r="G39" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I39" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2607,20 +2121,20 @@
       <c r="D40">
         <v>15</v>
       </c>
-      <c r="E40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" t="s">
-        <v>327</v>
+      <c r="E40">
+        <v>221.398</v>
+      </c>
+      <c r="F40">
+        <v>3320.97</v>
       </c>
       <c r="G40" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I40" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2636,20 +2150,17 @@
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41" t="s">
-        <v>258</v>
-      </c>
-      <c r="F41" t="s">
-        <v>328</v>
+      <c r="F41">
+        <v>1620</v>
       </c>
       <c r="G41" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I41" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2665,20 +2176,17 @@
       <c r="D42">
         <v>20</v>
       </c>
-      <c r="E42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" t="s">
-        <v>329</v>
+      <c r="F42">
+        <v>6055.01</v>
       </c>
       <c r="G42" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I42" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2694,20 +2202,17 @@
       <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" t="s">
-        <v>330</v>
+      <c r="F43">
+        <v>5350.35</v>
       </c>
       <c r="G43" t="s">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="H43" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I43" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2723,20 +2228,17 @@
       <c r="D44">
         <v>30</v>
       </c>
-      <c r="E44" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" t="s">
-        <v>331</v>
+      <c r="F44">
+        <v>600</v>
       </c>
       <c r="G44" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H44" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2752,20 +2254,17 @@
       <c r="D45">
         <v>10</v>
       </c>
-      <c r="E45" t="s">
-        <v>262</v>
-      </c>
-      <c r="F45" t="s">
-        <v>332</v>
+      <c r="F45">
+        <v>502.2</v>
       </c>
       <c r="G45" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2781,20 +2280,20 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" t="s">
-        <v>263</v>
-      </c>
-      <c r="F46" t="s">
-        <v>263</v>
+      <c r="E46">
+        <v>216.28</v>
+      </c>
+      <c r="F46">
+        <v>216.28</v>
       </c>
       <c r="G46" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H46" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I46" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2810,20 +2309,20 @@
       <c r="D47">
         <v>15</v>
       </c>
-      <c r="E47" t="s">
-        <v>264</v>
-      </c>
-      <c r="F47" t="s">
-        <v>333</v>
+      <c r="E47">
+        <v>439.8953333333333</v>
+      </c>
+      <c r="F47">
+        <v>6598.43</v>
       </c>
       <c r="G47" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I47" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2839,20 +2338,20 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" t="s">
-        <v>334</v>
+      <c r="E48">
+        <v>141.2333333333333</v>
+      </c>
+      <c r="F48">
+        <v>423.6999999999999</v>
       </c>
       <c r="G48" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H48" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I48" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2868,20 +2367,17 @@
       <c r="D49">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>266</v>
-      </c>
-      <c r="F49" t="s">
-        <v>335</v>
+      <c r="F49">
+        <v>3093.39</v>
       </c>
       <c r="G49" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H49" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2897,20 +2393,17 @@
       <c r="D50">
         <v>10</v>
       </c>
-      <c r="E50" t="s">
-        <v>267</v>
-      </c>
-      <c r="F50" t="s">
-        <v>336</v>
+      <c r="F50">
+        <v>716.22</v>
       </c>
       <c r="G50" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H50" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I50" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2926,20 +2419,17 @@
       <c r="D51">
         <v>2</v>
       </c>
-      <c r="E51" t="s">
-        <v>268</v>
-      </c>
-      <c r="F51" t="s">
-        <v>337</v>
+      <c r="F51">
+        <v>1804.61</v>
       </c>
       <c r="G51" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H51" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I51" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2955,20 +2445,20 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" t="s">
-        <v>269</v>
-      </c>
-      <c r="F52" t="s">
-        <v>269</v>
+      <c r="E52">
+        <v>579.9</v>
+      </c>
+      <c r="F52">
+        <v>579.9</v>
       </c>
       <c r="G52" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H52" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I52" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2984,20 +2474,17 @@
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
-        <v>270</v>
-      </c>
-      <c r="F53" t="s">
-        <v>338</v>
+      <c r="F53">
+        <v>1411.88</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H53" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I53" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -3013,20 +2500,20 @@
       <c r="D54">
         <v>5</v>
       </c>
-      <c r="E54" t="s">
-        <v>271</v>
-      </c>
-      <c r="F54" t="s">
-        <v>339</v>
+      <c r="E54">
+        <v>93.714</v>
+      </c>
+      <c r="F54">
+        <v>468.57</v>
       </c>
       <c r="G54" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H54" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I54" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -3042,20 +2529,20 @@
       <c r="D55">
         <v>45</v>
       </c>
-      <c r="E55" t="s">
-        <v>272</v>
-      </c>
-      <c r="F55" t="s">
-        <v>340</v>
+      <c r="E55">
+        <v>49.18777777777778</v>
+      </c>
+      <c r="F55">
+        <v>2213.45</v>
       </c>
       <c r="G55" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H55" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I55" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -3071,20 +2558,20 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" t="s">
-        <v>273</v>
-      </c>
-      <c r="F56" t="s">
-        <v>341</v>
+      <c r="E56">
+        <v>2769.466666666667</v>
+      </c>
+      <c r="F56">
+        <v>8308.4</v>
       </c>
       <c r="G56" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H56" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I56" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -3100,20 +2587,17 @@
       <c r="D57">
         <v>2</v>
       </c>
-      <c r="E57" t="s">
-        <v>274</v>
-      </c>
-      <c r="F57" t="s">
-        <v>342</v>
+      <c r="F57">
+        <v>949.5</v>
       </c>
       <c r="G57" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H57" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I57" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -3129,20 +2613,20 @@
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58" t="s">
-        <v>275</v>
-      </c>
-      <c r="F58" t="s">
-        <v>343</v>
+      <c r="E58">
+        <v>2143.23</v>
+      </c>
+      <c r="F58">
+        <v>6429.690000000001</v>
       </c>
       <c r="G58" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H58" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I58" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3158,20 +2642,17 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>276</v>
-      </c>
-      <c r="F59" t="s">
-        <v>344</v>
+      <c r="F59">
+        <v>207.3</v>
       </c>
       <c r="G59" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H59" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I59" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3187,20 +2668,17 @@
       <c r="D60">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
-        <v>277</v>
-      </c>
-      <c r="F60" t="s">
-        <v>345</v>
+      <c r="F60">
+        <v>1028.58</v>
       </c>
       <c r="G60" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H60" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I60" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3216,20 +2694,20 @@
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" t="s">
-        <v>278</v>
-      </c>
-      <c r="F61" t="s">
-        <v>278</v>
+      <c r="E61">
+        <v>6273.33</v>
+      </c>
+      <c r="F61">
+        <v>6273.33</v>
       </c>
       <c r="G61" t="s">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="H61" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I61" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3245,20 +2723,20 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
-        <v>279</v>
-      </c>
-      <c r="F62" t="s">
-        <v>346</v>
+      <c r="E62">
+        <v>1349</v>
+      </c>
+      <c r="F62">
+        <v>4047</v>
       </c>
       <c r="G62" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H62" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I62" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3274,20 +2752,20 @@
       <c r="D63">
         <v>15</v>
       </c>
-      <c r="E63" t="s">
-        <v>280</v>
-      </c>
-      <c r="F63" t="s">
-        <v>347</v>
+      <c r="E63">
+        <v>45.36</v>
+      </c>
+      <c r="F63">
+        <v>680.4</v>
       </c>
       <c r="G63" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H63" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I63" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3303,20 +2781,17 @@
       <c r="D64">
         <v>10</v>
       </c>
-      <c r="E64" t="s">
-        <v>281</v>
-      </c>
-      <c r="F64" t="s">
-        <v>348</v>
+      <c r="F64">
+        <v>848.8200000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H64" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I64" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3332,20 +2807,20 @@
       <c r="D65">
         <v>7</v>
       </c>
-      <c r="E65" t="s">
-        <v>282</v>
-      </c>
-      <c r="F65" t="s">
-        <v>349</v>
+      <c r="E65">
+        <v>2233.714285714286</v>
+      </c>
+      <c r="F65">
+        <v>15636</v>
       </c>
       <c r="G65" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H65" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I65" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3361,20 +2836,17 @@
       <c r="D66">
         <v>4</v>
       </c>
-      <c r="E66" t="s">
-        <v>283</v>
-      </c>
-      <c r="F66" t="s">
-        <v>350</v>
+      <c r="F66">
+        <v>1786</v>
       </c>
       <c r="G66" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H66" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I66" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3390,20 +2862,20 @@
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67" t="s">
-        <v>284</v>
-      </c>
-      <c r="F67" t="s">
-        <v>351</v>
+      <c r="E67">
+        <v>326.63</v>
+      </c>
+      <c r="F67">
+        <v>979.89</v>
       </c>
       <c r="G67" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H67" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I67" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3419,20 +2891,17 @@
       <c r="D68">
         <v>2</v>
       </c>
-      <c r="E68" t="s">
-        <v>285</v>
-      </c>
-      <c r="F68" t="s">
-        <v>352</v>
+      <c r="F68">
+        <v>1222.1</v>
       </c>
       <c r="G68" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H68" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I68" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3448,20 +2917,20 @@
       <c r="D69">
         <v>5</v>
       </c>
-      <c r="E69" t="s">
-        <v>286</v>
-      </c>
-      <c r="F69" t="s">
-        <v>353</v>
+      <c r="E69">
+        <v>105.738</v>
+      </c>
+      <c r="F69">
+        <v>528.6900000000001</v>
       </c>
       <c r="G69" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H69" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I69" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3477,20 +2946,20 @@
       <c r="D70">
         <v>5</v>
       </c>
-      <c r="E70" t="s">
-        <v>287</v>
-      </c>
-      <c r="F70" t="s">
-        <v>354</v>
+      <c r="E70">
+        <v>121.332</v>
+      </c>
+      <c r="F70">
+        <v>606.66</v>
       </c>
       <c r="G70" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="H70" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I70" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3506,20 +2975,17 @@
       <c r="D71">
         <v>10</v>
       </c>
-      <c r="E71" t="s">
-        <v>288</v>
-      </c>
-      <c r="F71" t="s">
-        <v>355</v>
+      <c r="F71">
+        <v>2170</v>
       </c>
       <c r="G71" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H71" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="I71" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/DOWNLOADS/EDITAIS/U_180224_E_900302025_29-09-2025_09h00m/U_180224_E_900302025_29-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_180224_E_900302025_29-09-2025_09h00m/U_180224_E_900302025_29-09-2025_09h00m_master.xlsx
@@ -463,214 +463,214 @@
     <t>Aparelho Telefônico Aparelho Telefônico Tipo: Mesa, Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz, Características Adicionais: Identificador Chamadas, Teclado Iluminado, Alimentação: Bivolt</t>
   </si>
   <si>
-    <t>Cartucho Toner Impressora Samsung Tipo Cartucho: Original , Cor Tinta: Preta , Referência Cartucho 1,: Mlt-D116s.</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original , Cor: Preta , Referência Cartucho 2: Cf280a.</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Preta , Referência Cartucho 3: 78c0x10</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Amarela , Referência Cartucho 3: 78c0x40</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Magenta , Referência Cartucho 3: 78c0x30.</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original , Cor Tinta: Ciano , Referência Cartucho 3: 78c0x20.</t>
-  </si>
-  <si>
-    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original , Cor: Preta , Referência Cartucho 3: W1030xz.</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal , Cor: Magenta , Aplicação: Impressora Epson L355 , Carga: Refil , Características Adicionais: Capacidade 70 Ml.</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal , Cor: Amarela , Aplicação: Impressora Epson L355 , Carga: Refil , Características Adicionais: Capacidade 70 Ml</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal  , Cor: Ciano  , Aplicação: Impressora Epson L355  , Carga: Refil  , Características Adicionais: Capacidade 70 Ml.</t>
-  </si>
-  <si>
-    <t>Tinta Impressora Material: Pigmentação Coloidal , Cor: Preta , Aplicação: Impressora Epson L355 , Carga: Refil , Características Adicionais: Capacidade 70 Ml.</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Magenta , Referência Cartucho 2: T296320.</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Preta , Referência Cartucho 2: T296120.</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Amarela , Referência Cartucho 2: T296420.</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original , Cor Tinta: Ciano , Referência Cartucho 2: T296220.</t>
-  </si>
-  <si>
-    <t>Fita Adesiva Material: Plástico , Tipo: Rotuladora , Largura: 36 MM, Cor: Incolor , Aplicação: Rotulador Eletrônico Marca Brother , Características Adicionais: Fita Laminada Tz.</t>
-  </si>
-  <si>
-    <t>Processador Tipo: Lga 1700 , Velocidade Processamento: 2.1 GHZ, Modelo: Intel Core I7 12700 , Características Adicionais: Gráfico Uhd Integrado , Barramento: Turbo Boost 4.3 Ghz , Memória Cache: 25 M.</t>
+    <t>Cartucho Toner Impressora Samsung Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 1,: Mlt-D116s</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original, Cor: Preta, Referência Cartucho 2: Cf280a</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 3: 78c0x10</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Amarela, Referência Cartucho 3: 78c0x40</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Magenta, Referência Cartucho 3: 78c0x30</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Lexmark Tipo Cartucho: Original, Cor Tinta: Ciano, Referência Cartucho 3: 78c0x20</t>
+  </si>
+  <si>
+    <t>Cartucho Toner Impressora Hp Tipo Cartucho: Original, Cor: Preta, Referência Cartucho 3: W1030xz</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Magenta, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Amarela, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Ciano, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Tinta Impressora Material: Pigmentação Coloidal, Cor: Preta, Aplicação: Impressora Epson L355, Carga: Refil, Características Adicionais: Capacidade 70 Ml</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Magenta, Referência Cartucho 2: T296320</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Preta, Referência Cartucho 2: T296120</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Amarela, Referência Cartucho 2: T296420</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Epson Tipo Cartucho: Original, Cor Tinta: Ciano, Referência Cartucho 2: T296220</t>
+  </si>
+  <si>
+    <t>Fita Adesiva Material: Plástico, Tipo: Rotuladora, Largura: 36MM, Cor: Incolor, Aplicação: Rotulador Eletrônico Marca Brother, Características Adicionais: Fita Laminada Tz</t>
+  </si>
+  <si>
+    <t>Processador Tipo: Lga 1700, Velocidade Processamento: 2.1GHZ, Modelo: Intel Core I7 12700, Características Adicionais: Gráfico Uhd Integrado, Barramento: Turbo Boost 4.3 Ghz, Memória Cache: 25MB</t>
   </si>
   <si>
     <t>Memoria Ram; de 32 Gb, Velocidade de 5200 Mhz; Ddr5; Com 288 Vias, Dual Channel, Suporte a Xmp 2.0, Com Dissipador de Calor Acoplado</t>
   </si>
   <si>
-    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama , Material Condutor: Cobre Eletrolítico , Tipo Condutor: Trançado Flexível , Tipo Cabo: Patch Cord , Cor: Azul , Padrão Cabeamento: Gigalan , Características Adicionais: Conectorizado , Categoria: 6 , Comprimento: 1,5 M, Conector: Rj- 45</t>
-  </si>
-  <si>
-    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama , Material Condutor: Cobre Eletrolítico , Tipo Condutor: Trançado Flexível , Tipo Cabo: Patch Cord , Cor: Azul , Padrão Cabeamento: Gigalan , Características Adicionais: Conectorizado , Categoria: 6 , Comprimento: 2,5 M, Conector: Rj- 45</t>
-  </si>
-  <si>
-    <t>Monitor Computador Tamanho Tela: 23 A 30 POL, Tipo De Tela: Led , Formato Tela: Widescreen , Qualidade De Imagem: 4 K , Interatividade Da Tela: Sem Interatividade, Ajuste: Ajuste De Rotação, Altura E Inclinação Do Display, Alimentação: Bivolt , Garantia On Site: 12 MESE</t>
-  </si>
-  <si>
-    <t>Water cooler, ARGB, 360MM;Velocidade da Ventoinha 800a 1800 ±10% RPM; Dimensões da Ventoinha 120 x 120 x 25 mm; Soquete Intel: LGA115X/1200/1700/1366/2011/2066.AMD: FM2/FM1/AM3+/AM3/AM2+/AM2/AM4/AM5; Velocidade da Bomba 2600 ±10 RPM</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original , Cor Tinta: Preto , Referência Cartucho 6: Hp 3ym79ab.</t>
-  </si>
-  <si>
-    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original , Cor Tinta: Colorida , Referência Cartucho 6: Hp 3ym78ab.</t>
-  </si>
-  <si>
-    <t>Projetor Multimídia Tipo Lâmpada: Led , Voltagem: Bivolt V, Quantidade Entradas Vídeo: 2 UN, Tipo Zoom: Motorizado , Tipo: Retroprojeção, Teto , Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast , Luminosidade Mínima: 5.000 LM, Tipo Projeção: Frontal , Resolução: 1920 X 1200.</t>
-  </si>
-  <si>
-    <t>Memória Flash Capacidade: 16 GB, Tipo: Pen Drive , Interface: Usb 2.0 E Windows Xp/Vista/7 , Características Adicionais: Acabamento Emborrachado/Resistente À Agua.</t>
-  </si>
-  <si>
-    <t>Memória Flash Capacidade: 64 MB, Tipo: Usb Flash , Interface: Usb Plug &amp; Play , Velocidade Leitura: 7,2 MB/S, Velocidade Gravação: 4 MB/S, Características Adicionais: Sem Necessidade De Bateria,Fonte Interna Com Led, , Aplicação: Tranferência E Backup De Arquivos.</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Aplicação: Caixa/Mesa Som , Tipo Cabo: Xlr Fêmea/Xlr Macho , Comprimento: 15M.</t>
-  </si>
-  <si>
-    <t>Switch Quantidade Portas: 16 UN, Tipo Portas: 1000 Base T, 100 Base Tx E 10 Base T, Em Modos Ful , Velocidade Porta: 20 Mbps , Alimentação: 110/220 V, Frequência: 60 HZ, Características Adicionais: Portas 10/100/1000, Autoense E Rj45 , Aplicação: Conectar Microcomputador À Rede.</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Material Condutor: Cobre , Material Isolamento Condutor: Pvc , Aplicação: Equipamentos Eletrônicos, Material Cobertura: Pvc Emborrachado , Comprimento: 10 M, Conectores: Hdmi Macho , Material Conector: Ouro 24 Quilates.</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas Tipo: Conjunto Com 152 Peças , Componentes: 152 Peças, Com Pontas Diversas , Componentes Adicionais: Chave De Fenda Rotating Cap Design. , Aplicação: Manutenção Em Geral , Características Adicionais: Magnético, Antiderrapante, Precisão.</t>
-  </si>
-  <si>
-    <t>Conjunto Ferramentas Componentes: 38 Pecas , Aplicação: Ferramentas Para Computador , Características Adicionais: Maleta Termoplástica.</t>
-  </si>
-  <si>
-    <t>Conector Tipo: Macho , Aplicação: Cabo De Rede , Categoria: 6 , Padrão: Rj45.</t>
-  </si>
-  <si>
-    <t>Conector , Tipo: Rj 45 Macho vazado, Número Conectores: 8 UN, Características Adicionais: Não Blindado Para Fio Sólido, Categoria 6, Transpa</t>
-  </si>
-  <si>
-    <t>Pente De Memória Capacidade Memória: 8 GB, Tipo: Ddr4 , Velocidade Barramento: 2.133 MHZ, Aplicação: Notebook.</t>
-  </si>
-  <si>
-    <t>Pente De Memória Capacidade Memória: 16 GB, Tipo: Ddr3 , Características Adicionais: Sdram/Dimm , Frequência Clock: 1.333 MH.</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Disco Ssd , Capacidade: Mínimo 250 GB, Velocidade: 3300 MB/S, Aplicação: Microcomputador.</t>
-  </si>
-  <si>
-    <t>Teclado Microcomputador Tipo: Multimidia , Tipo Conector: Usb , Conectividade: Com Fio.</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Vertical , Sensor: Laser , Tipo Conector: Usb , Conectividade: Sem Fio.</t>
-  </si>
-  <si>
-    <t>Mouse Computador Tamanho: Padrão , Sensor: Led , Tipo Conector: Usb , Conectividade: Com Fio.</t>
-  </si>
-  <si>
-    <t>Estabilizador Tensão Tensão Alimentação Entrada: 115/127/220 V, Quantidade Tomadas Saída: 6 , Aplicação: Informática , Tensão Saída: 110 V, Capacidade Nominal: 1000 V.</t>
-  </si>
-  <si>
-    <t>Sistema Circuito Fechado Tv Componentes: Gravador Nvr 16 Canais , Tipo Sistema: Gravação Digital , Aplicação: Sistema De Segurança , Características Adicionais: Suportar 08 HdS De Até 16tb.</t>
-  </si>
-  <si>
-    <t>Mouse Pad Material: Borracha Neoprene , Comprimento: 25 CM, Largura: 22 CM, Espessura: 2,5 MM, Características Adicionais: Ergonômico, Com Apoio Para O Punho Em Gel , Cor: Azul.</t>
-  </si>
-  <si>
-    <t>Caixa Som Potência: Por Canal 3 W, Voltagem: 5 Vdc V, Aplicação: Computador , Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De Volume.</t>
-  </si>
-  <si>
-    <t>Extensão Elétrica Tipo: Carretel , Comprimento: 30 M, Componentes: 5 Tomadas, 2p+T , Seção Nominal: 2,5 MM2, Número Pólos: 2p + T , Formação Do Cabo: 3 X 2,5 MM2, Referência: Force Line 0181200019 , Tensão Nominal: 110/220 VCA, Temperatura Operação: 70° , Formato Contato: Padrão Brasileiro , Normas Técnicas: Nbr 14136 , Grau Proteção: Ip44 , Potência Máxima: 2.200 W, Material: Termoplástico Anti-Chama , Corrente Nominal: 10 A, Tensão Entrada: 110-127 V, Conexões: 1(Uma) Entrada 2p+T E 5 Saídas 2p+T.</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Disco Ssd , Capacidade: 500 GB, Tamanho: 22 X 80 MM, Aplicação: Microcomputador , Características Adicionais: Formato: M.2 2280, Interface: Nvme Pcie 4.0 X 4.</t>
-  </si>
-  <si>
-    <t>Alicate Para Crimpar RJ45 de passagem, concetor vazado ; cat 5e, cat6,cat7. Modelo de referencia: GTL-3436 gettalan ou 35030017 furukawa</t>
-  </si>
-  <si>
-    <t>Disco Rígido Removível Capacidade Memória: 2 TB., Velocidade Transferência: 4.8 GB/S, Interface: Usb 3.0 , Aplicação: Computador , Características Adicionais: Memória Cache Igual Ou Superior A 2mb , Velocidade: 7.200 RPM.</t>
-  </si>
-  <si>
-    <t>Cabo Usb Comprimento: 5 M, Tipo: Usb 3.0 , Aplicação: Informática , Características Adicionais: Conectores USB x USB Tipo -C</t>
-  </si>
-  <si>
-    <t>Cabo Rede Computador Material Revestimento: Polietileno Especial , Material Condutor: Cobre Nú , Bitola Condutor: 24 AWG, Tipo Condutor: Trançado 4 Pares , Tipo Cabo: 6 E , Cor: Azul , Padrão Cabeamento: Com Blindagem Helicoidal Em Fita Metalizada , Características Adicionais: Cabo Utp Blindado Com Marcação Seqüencial Métrica , Categoria: 6e , Aplicação: Conexão De Rede , Material Isolamento Condutor: Pvc Não Propagante À Chama , Comprimento: 305.</t>
-  </si>
-  <si>
-    <t>Fechadura Biometrica Reconhecimento De Impressões Digitais: 50 , Acionamento: Impressão Digital , Leitura: Digital , Alimentação: Pilhas E /Ou Baterias , Características Adicionais: Resolução Mínima 300 Dpi, Chave Emergência , Sistema De Programação: Permite Excluir Ou Substituir Impressões Digitais.</t>
-  </si>
-  <si>
-    <t>Disco Magnético Memória: 1 Terabyte TB., Aplicação: Uso Externo , Modelo: Ssd , Características Adicionais: Compatível Com Usb 3.1.</t>
-  </si>
-  <si>
-    <t>Unidade Imagem Referência: Mlt-R116 , Tipo Uso: Impressora Sansung , Cor: Preta , Durabilidade: 9.000 Cópias , Tipo: Original.</t>
-  </si>
-  <si>
-    <t>Régua Elétrica Material: Chapa Plástica De Alto Impacto , Quantidade Tomadas Saída: 4 (2p+T) , Características Adicionais: Protetor Contra Surtos De Tensão; Chave Liga/Desl , Potência Nominal: 127 V, Comprimento Cabo: 1,3.</t>
-  </si>
-  <si>
-    <t>Placa Controladora Vídeo Tamanho Memória: 8 GB, Resolução Imagem: 7680 X 4320 DPI, Padrão Imagem: Vga-Dvi-Hdmi , Modelo: Nvidia Geforce Rtx 3070 , Barramento: Pci Expres 4.0 - Hdmi 2.1 , Padrão: Ddr6.</t>
-  </si>
-  <si>
-    <t>Placa Controladora Vídeo Tamanho Memória: 4 GB, Resolução Imagem: 1920 X 1080 DPI, Padrão Imagem: Vga-Dvi-Hdmi , Características Adicionais: 700 Mhz.</t>
-  </si>
-  <si>
-    <t>Unidade Disco Tipo: Hd Purple , Capacidade: 8 TB., Aplicação: Equipamentos De Segurança Eletrônica - Cftv , Características Adicionais: Modelo De Referência: Wd82purz , Memória Cache: 256 M</t>
-  </si>
-  <si>
-    <t>Caneta - Indicador Material: Aço , Tipo Indicador: Laser , Aplicação: Apresentador De Slides Com Ponteiro Laser Características Adicionais: Sem Fio, Alcance 15 Metros, Interface Usb, Estojo</t>
+    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama, Material Condutor: Cobre Eletrolítico, Tipo Condutor: Trançado Flexível, Tipo Cabo: Patch Cord, Cor: Azul, Padrão Cabeamento: Gigalan, Características Adicionais: Conectorizado, Categoria: 6, Comprimento: 1,5 M, Conector: Rj- 45</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Pvc - Cloreto De Polivinila Anti-Chama, Material Condutor: Cobre Eletrolítico, Tipo Condutor: Trançado Flexível, Tipo Cabo: Patch Cord, Cor: Azul, Padrão Cabeamento: Gigalan, Características Adicionais: Conectorizado, Categoria: 6, Comprimento: 2,5 M, Conector: Rj-45</t>
+  </si>
+  <si>
+    <t>Monitor Computador Tamanho Tela: 23 A 30 POL, Tipo De Tela: Led, Formato Tela: Widescreen, Qualidade De Imagem: 4 K, Interatividade Da Tela: Sem Interatividade, Ajuste: Ajuste De Rotação, Altura E Inclinação Do Display, Alimentação: Bivolt, Garantia On Site: 12 MESES</t>
+  </si>
+  <si>
+    <t>Water cooler, ARGB, 360MM;Velocidade da Ventoinha 800a 1800 ±10% RPM; Dimensões da Ventoinha 120 x 120 x 25 mm; Soquete Intel: LGA115X/1200/1700/1366/2011/2066.AMD: FM2/FM1/AM3+/AM3/AM2+/AM4/AM5; Velocidade da Bomba 2600 ±10 RPM</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original , Cor Tinta: Preto , Referência Cartucho 6: Hp 3ym79ab</t>
+  </si>
+  <si>
+    <t>Cartucho Tinta Impressora Hp Tipo Cartucho: Original , Cor Tinta: Colorida , Referência Cartucho 6: Hp 3ym78ab</t>
+  </si>
+  <si>
+    <t>Projetor Multimídia Tipo Lâmpada: Led , Voltagem: Bivolt V, Quantidade Entradas Vídeo: 2 UN, Tipo Zoom: Motorizado , Tipo: Retroprojeção, Teto , Características Adicionais: Conexão: Usb, Wi-Fi E Via Miracast , Luminosidade Mínima: 5.000 LM, Tipo Projeção: Frontal, Resolução: 1920 X 1200</t>
+  </si>
+  <si>
+    <t>Memória Flash Capacidade: 16 GB, Tipo: Pen Drive , Interface: Usb 2.0 E Windows Xp/Vista/7 , Características Adicionais: Acabamento Emborrachado/Resistente À Agua</t>
+  </si>
+  <si>
+    <t>Memória Flash Capacidade: 64 MB, Tipo: Usb Flash , Interface: Usb Plug &amp; Play , Velocidade Leitura: 7,2 MB/S, Velocidade Gravação: 4 MB/S, Características Adicionais: Sem Necessidade De Bateria,Fonte Interna Com Led, , Aplicação: Tranferência E Backup De Arquivos</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Aplicação: Caixa/Mesa Som , Tipo Cabo: Xlr Fêmea/Xlr Macho , Comprimento: 15M</t>
+  </si>
+  <si>
+    <t>Switch Quantidade Portas: 16 UN, Tipo Portas: 1000 Base T, 100 Base Tx E 10 Base T, Em Modos Ful, Velocidade Porta: 20 Mbps, Alimentação: 110/220 V, Frequência: 60 HZ, Características Adicionais: Portas 10/100/1000, Autoense E Rj45, Aplicação: Conectar Microcomputador À Rede</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Material Condutor: Cobre , Material Isolamento Condutor: Pvc , Aplicação: Equipamentos Eletrônicos , Material Cobertura: Pvc Emborrachado , Comprimento: 10 M, Conectores: Hdmi Macho , Material Conector: Ouro 24 Quilates</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Tipo: Conjunto Com 152 Peças , Componentes: 152 Peças, Com Pontas Diversas , Componentes Adicionais: Chave De Fenda Rotating Cap Design., Aplicação: Manutenção Em Geral, Características Adicionais: Magnético, Antiderrapante, Precisão,</t>
+  </si>
+  <si>
+    <t>Conjunto Ferramentas Componentes: 38 Pecas , Aplicação: Ferramentas Para Computador , Características Adicionais: Maleta Termoplástica</t>
+  </si>
+  <si>
+    <t>Conector Tipo: Macho , Aplicação: Cabo De Rede , Categoria: 6 , Padrão: Rj45</t>
+  </si>
+  <si>
+    <t>Conector Tipo: Rj 45 Macho , Número Conectores: 8 UN , Características Adicionais: Não Blindado Para Fio Sólido, Categoria 6, Transpa</t>
+  </si>
+  <si>
+    <t>Pente De Memória Capacidade Memória: 8 GB, Tipo: Ddr4 , Velocidade Barramento: 2.133 MHZ, Aplicação: Notebook</t>
+  </si>
+  <si>
+    <t>Pente De Memória Capacidade Memória: 16 GB, Tipo: Ddr3 , Características Adicionais: Sdram/Dimm , Frequência Clock: 1.333 MH</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Disco Ssd , Capacidade: Mínimo 250 GB, Velocidade: 3300 MB/S, Aplicação: Microcomputador</t>
+  </si>
+  <si>
+    <t>Teclado Microcomputador Tipo: Multimidia , Tipo Conector: Usb , Conectividade: Com Fio</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Vertical , Sensor: Laser , Tipo Conector: Usb , Conectividade: Sem Fio</t>
+  </si>
+  <si>
+    <t>Mouse Computador Tamanho: Padrão , Sensor: Led , Tipo Conector: Usb , Conectividade: Com Fio</t>
+  </si>
+  <si>
+    <t>Estabilizador Tensão Tensão Alimentação Entrada: 115/127/220 V, Quantidade Tomadas Saída: 6 , Aplicação: Informática , Tensão Saída: 110 V, Capacidade Nominal: 1000 V</t>
+  </si>
+  <si>
+    <t>Sistema Circuito Fechado Tv Componentes: Gravador Nvr 16 Canais , Tipo Sistema: Gravação Digital , Aplicação: Sistema De Segurança , Características Adicionais: Suportar 08 HdS De Até 16tb</t>
+  </si>
+  <si>
+    <t>Mouse Pad Material: Borracha Neoprene , Comprimento: 25 CM, Largura: 22 CM, Espessura: 2,5 MM , Características Adicionais: Ergonômico, Com Apoio Para O Punho Em Gel, Cor: Azul</t>
+  </si>
+  <si>
+    <t>Caixa Som Potência: Por Canal 3 W, Voltagem: 5 Vdc V, Aplicação: Computador , Características Adicionais: Áudio 2.0 Sáida Para Fone De Ouvido E Controle De</t>
+  </si>
+  <si>
+    <t>Extensão Elétrica Tipo: Carretel , Comprimento: 30 M , Componentes: 5 Tomadas, 2p+T , Seção Nominal: 2.5 MM2 , Número Pólos: 2p + T , Formação Do Cabo: 3 X 2.5 MM2 , Referência: Force Line 0181200019 , Tensão Nominal: 110/220 VCA , Temperatura Operação: 70°, Formato Contato: Padrão Brasileiro , Normas Técnicas: Nbr 14136 , Grau Proteção: Ip44 , Potência Máxima: 2.200 W , Material: Termoplástico Anti-Chama , Corrente Nominal: 10 A , Tensão Entrada: 110-127 V , Conexões: 1(Uma) Entrada 2p+T E 5 Saídas 2p+T</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Disco Ssd , Capacidade: 500 GB, Tamanho: 22 X 80 MM, Aplicação: Microcomputador , Características Adicionais: Formato: M.2 2280, Interface: Nvme Pcie 4.0 X 4</t>
+  </si>
+  <si>
+    <t>Alicate Para Climpar Material: Metal , Características Adicionais: Lâminas De Corte De Excesso , Material Cabo: Plástico , Tipo Corte: Punch Down Inserção Femea , Comprimento: 135 MM , Uso: Conectar E Cortar Os Fios Nos Módulos Rj11 E Rj45</t>
+  </si>
+  <si>
+    <t>Disco Rígido Removível Capacidade Memória: 2 TB., Velocidade Transferência: 4.8 GB/S, Interface: Usb 3.0 , Aplicação: Computador , Características Adicionais: Memória Cache Igual Ou Superior A 2mb , Velocidade: 7.200 RPM</t>
+  </si>
+  <si>
+    <t>Cabo Usb Comprimento: 5 M , Tipo: Usb 3.0 , Aplicação: Informática , Características Adicionais: Conectores USB x USB Tipo -C</t>
+  </si>
+  <si>
+    <t>Cabo Rede Computador Material Revestimento: Polietileno Especial , Material Condutor: Cobre Nú , Bitola Condutor: 24 AWG , Tipo Condutor: Trançado 4 Pares , Tipo Cabo: 6 E , Cor: Azul , Padrão Cabeamento: Com Blindagem Helicoidal Em Fita Metalizada , Características Adicionais: Cabo Utp Blindado Com Marcação Seqüencial Métrica , Categoria: 6e , Aplicação: Conexão De Rede , Material Isolamento Condutor: Pvc Não Propagante À Chama , Comprimento: 305M</t>
+  </si>
+  <si>
+    <t>Fechadura Biometrica Reconhecimento De Impressões Digitais: 50 , Acionamento: Impressão Digital , Leitura: Digital , Alimentação: Pilhas E/Ou Baterias , Características Adicionais: Resolução Mínima 300 Dpi , Chave Emergência , Sistema De Programação: Permite Excluir Ou Substituir Impressões Digitais</t>
+  </si>
+  <si>
+    <t>Disco Magnético Memória: 1 Terabyte TB., Aplicação: Uso Externo , Modelo: Ssd , Características Adicionais: Compatível Com Usb 3.1</t>
+  </si>
+  <si>
+    <t>Unidade Imagem Referência: Mlt-R116 , Tipo Uso: Impressora Sansung , Cor: Preta , Durabilidade: 9.000 Cópias , Tipo: Original</t>
+  </si>
+  <si>
+    <t>Régua Elétrica Material: Chapa Plástica De Alto Impacto , Quantidade Tomadas Saída: 4 (2pT), Características Adicionais: Protetor Contra Surtos De Tensão Chave Liga/Desl, Potência Nominal: 127V, Comprimento Cabo: 1,3M</t>
+  </si>
+  <si>
+    <t>Placa Controladora Vídeo Tamanho Memória: 8 GB, Resolução Imagem: 7680 X 4320DPI, Padrão Imagem: Vga-Dvi-Hdmi, Modelo: Nvidia Geforce Rtx 3070, Barramento: Pci Expres 4.0 - Hdmi 2.1, Padrão: Ddr6</t>
+  </si>
+  <si>
+    <t>Placa Controladora Vídeo Tamanho Memória: 4 GB, Resolução Imagem: 1920 X 1080DPI, Padrão Imagem: Vga-Dvi-Hdmi, Características Adicionais: 700 Mhz</t>
+  </si>
+  <si>
+    <t>Unidade Disco Tipo: Hd Purple, Capacidade: 8TB., Aplicação: Equipamentos De Segurança Eletrônica - Cftv, Características Adicionais: Modelo De Referência: Wd82purz, Memória Cache: 256MB</t>
+  </si>
+  <si>
+    <t>Caneta - Indicador Material: Aço , Tipo Indicador: Laser , Aplicação: Apresentador De Slides Com Laser Pointer, Características Adicionais: Sem Fio, Alcance 15 Metros, Interface Usb, Estojo</t>
   </si>
   <si>
     <t>Mouse Computador Tamanho: Vertical , Sensor: Laser , Tipo Conector: Usb , Conectividade: Com Fio</t>
   </si>
   <si>
-    <t>Microfone Tipo: Sem Fio, Alimentação: Bateria 9 V, Tipo Receptor: Antena Externa, Características Adicionais: 10 Canais E Oito Sistemas Compatíveis, Alcance: 75 M, Alimentação Externa Receptor: 120 V, Acessórios: Conector 1/4" E Xlr, Encaixe Para Pedestal, Referência Fabricante: Shure P24/P58</t>
-  </si>
-  <si>
-    <t>Placa Mãe Componentes: Chipset Intel B760 , Aplicação: Microcomputador , Tipo Portas: 8 X Usb, Rj-45 2.5gb, Hdmi, Displayport , Tipo Conectores: 4 X Sata3 6gb/S (Suporta Raid 0/1/5/10) , Expansão de Memória: 192 GB, Características Adicionais: Wifi 6e + Bluetooth , Slots: 3 X M.2, 3 X Pci-Express, Memória Ram: 4 Slots Ddr5, Fonte Alimentação: Atx, Padrão: Micro Atx, Socket: Lga 1700, Referência: Asus Tuf Gaming</t>
-  </si>
-  <si>
-    <t>Filtro Linha Tensão Alimentação: 110/220 V, Quantidade Saída: 5 Tomadas Para Computador, Comprimento Cabo: 3M</t>
-  </si>
-  <si>
-    <t>Suporte Tipo: Ajustável, Formato: Retangular, Material: Plástico, Aplicação: Apoio Para Notebook</t>
-  </si>
-  <si>
-    <t>Televisor Tamanho Tela: 43 POL, Voltagem: Bivolt V, Características Adicionais: Smart Tv, 4K, Wifi. Entradas Hdmi/Usb, Conversor , Tipo Tela: Led , Acessórios: Controle Remoto</t>
-  </si>
-  <si>
-    <t>Multímetro Tensão: 1.000 V, Tensão Ac: 1.000 V, Corrente Dc: 1.000 A, Corrente Ac: 10 A, Resistência: 50 MOHM, Frequência: 0,01 A 100 KHZ, Características Adicionais: Display Digital , Capacitância: 1nf A 10.000mf , Temperatura: 50°CA 1.200ºC</t>
-  </si>
-  <si>
-    <t>Apresentador Multimídia Distância Mínima: 10 M, Freqüência: 2,4 GHZ, Compatibilidade: Windows, Mac, Pc, Notebook , Fonte Alimentação: Bateria , Características Adicionais: Usb E Sem Fio</t>
-  </si>
-  <si>
-    <t>Secador / Soprador Tipo: Portátil, Tensão Alimentação: 110 V, Potência: 500 W, Uso: Limpeza Material Informática</t>
-  </si>
-  <si>
-    <t>Bateria Recarregável Aplicação: Equipamentos Eletrônicos, Sistema Eletroquímico: Ni-Mh, Tensão Nominal: 9 V, Capacidade Nominal 1: 450 MA</t>
-  </si>
-  <si>
-    <t>Cabo Áudio E Vídeo Material Condutor: Cobre , Aplicação: Vídeo Tv Projetores Dvds Receptores Sinais S-Vhs , Características Adicionais: Balanceado, Blindado E Flexível , Tipo Cabo: Hdmi , Conectores: Macho-Macho</t>
-  </si>
-  <si>
-    <t>Aparelho Telefônico Tipo: Mesa , Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz , Características Adicionais: Identificador Chamadas, Teclado Iluminado , Alimentação: Bivolt</t>
+    <t>Microfone Tipo: Sem Fio , Alimentação: Bateria 9V , Tipo Receptor: Antena Externa , Características Adicionais: 10 Canais E Oito Sistemas Compatíveis , Alcance: 75M , Alimentação Externa Receptor: 120V , Acessórios: Conector 1/4 E Xlr , Encaixe Para Pedestal , Referência Fabricante: Shure P24/P58</t>
+  </si>
+  <si>
+    <t>Placa Mãe Componentes: Chipset Intel B760 , Aplicação: Microcomputador , Tipo Portas: 8 X Usb , Rj-45 2.5gb , Hdmi , Displayport , Tipo Conectores: 4 X Sata3 6gb/S (Suporta Raid 0/1/5/10) , Memória Expansão: 192GB , Características Adicionais: Wifi 6e Bluetooth , Slots: 3 X M.2 , 3 X Pci-Express , Memória Ram: 4 Slots Ddr5 , Fonte Alimentação: Atx , Padrão: Micro Atx , Socket: Lga 1700 , Referência: Asus Tuf Gaming</t>
+  </si>
+  <si>
+    <t>Filtro Linha Tensão Alimentação: 110/220 V , Quantidade Saída: 5 Tomadas Para Computador , Comprimento Cabo: 3M,</t>
+  </si>
+  <si>
+    <t>Suporte Tipo: Ajustável , Formato: Retangular , Material: Plástico , Aplicação: Apoio Para Notebook</t>
+  </si>
+  <si>
+    <t>Televisor Tamanho Tela: 43 POL , Voltagem: Bivolt V , Características Adicionais: Smart Tv , 4K , Wifi. Entradas Hdmi/Usb , Conversor , Tipo Tela: Led , Acessórios: Controle Remoto</t>
+  </si>
+  <si>
+    <t>Multímetro Tensão: 1.000 V , Tensão Ac: 1.000 V , Corrente Dc: 1.000 A , Corrente Ac: 10 A , Resistência: 50 MOHM , Frequência: 0.01 A 100KHZ , Características Adicionais: Display Digital , Capacitância: 1nf A 10.000mf , Temperatura: 50C A 1.200C</t>
+  </si>
+  <si>
+    <t>Apresentador Multimídia Distância Mínima: 10 M , Freqüência: 2.4 GHZ , Compatibilidade: Windows, Mac, Pc, Notebook , Fonte Alimentação: Bateria , Características Adicionais: Usb E Sem Fio</t>
+  </si>
+  <si>
+    <t>Secador / Soprador Tipo: Portátil , Tensão Alimentação: 110 V , Potência: 500W , Uso: Limpeza Material Informática</t>
+  </si>
+  <si>
+    <t>Bateria Recarregável Aplicação: Equipamentos Eletrônicos , Sistema Eletroquímico: Ni-Mh , Tensão Nominal: 9V , Capacidade Nominal 1: 450MA</t>
+  </si>
+  <si>
+    <t>Cabo Áudio E Vídeo Material Condutor: Cobre , Aplicação: Vídeo Tv Projetores Dvds Receivers Sinais S-Vhs , Características Adicionais: Balanceado, Blindado E Flexível , Tipo Cabo: Hdmi , Conectores: Macho-Macho</t>
+  </si>
+  <si>
+    <t>Aparelho Telefônico Tipo: Mesa , Funções Básicas: Amplificador Som, Voz, Campainha, Viva-Voz , Características Adicionais: Identificador Chamadas , Teclado Iluminado , Alimentação: Bivolt</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1263,7 +1263,7 @@
         <v>304.344</v>
       </c>
       <c r="F8">
-        <v>7608.599999999999</v>
+        <v>7608.6</v>
       </c>
       <c r="G8" t="s">
         <v>219</v>
@@ -2342,7 +2342,7 @@
         <v>141.2333333333333</v>
       </c>
       <c r="F48">
-        <v>423.6999999999999</v>
+        <v>423.7</v>
       </c>
       <c r="G48" t="s">
         <v>219</v>
@@ -2617,7 +2617,7 @@
         <v>2143.23</v>
       </c>
       <c r="F58">
-        <v>6429.690000000001</v>
+        <v>6429.69</v>
       </c>
       <c r="G58" t="s">
         <v>219</v>
